--- a/아버지_부조금.xlsx
+++ b/아버지_부조금.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06_PersonalDocument\099_개인용무\10_상속관련\부의금(정현숙_정리)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Programming\01_ProgrammingPractice\Angular\ChangwonLife\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="1292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="1300">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8359,6 +8359,38 @@
   </si>
   <si>
     <t>5만원부조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부친별세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부조깜빡함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이경숙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부친별세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해양사업정책팀장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수도행정과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진강오</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조모별세</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8697,20 +8729,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8720,6 +8743,15 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14702,127 +14734,127 @@
   <sheetData>
     <row r="1" spans="1:13" ht="48" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18.95" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="45">
         <v>6490000</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.1" customHeight="1" thickBot="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="43" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -19210,22 +19242,28 @@
     </row>
     <row r="142" spans="1:13" ht="41.1" customHeight="1">
       <c r="A142" s="8"/>
-      <c r="B142" s="46" t="s">
+      <c r="B142" s="43" t="s">
         <v>921</v>
       </c>
-      <c r="C142" s="46"/>
-      <c r="D142" s="46"/>
-      <c r="E142" s="46"/>
-      <c r="F142" s="46"/>
-      <c r="G142" s="46"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="46"/>
-      <c r="J142" s="46"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="43"/>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="43"/>
       <c r="K142" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:WVT142"/>
   <mergeCells count="15">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="B142:J142"/>
@@ -19235,12 +19273,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
@@ -19447,10 +19479,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19459,6 +19491,7 @@
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19924,6 +19957,12 @@
       <c r="F22" t="s">
         <v>1164</v>
       </c>
+      <c r="G22" s="32" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H22" s="32">
+        <v>45286</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
@@ -20193,61 +20232,98 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="C35" s="32"/>
-      <c r="E35" s="32"/>
+      <c r="A35" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C35" s="32">
+        <v>45294</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E35" s="32">
+        <v>45294</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1088</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>1116</v>
-      </c>
+      <c r="C36" s="32"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C37" s="32">
-        <v>44293</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>1213</v>
+        <v>1118</v>
       </c>
       <c r="B38" t="s">
-        <v>1211</v>
+        <v>1117</v>
       </c>
       <c r="C38" s="32">
-        <v>43351</v>
+        <v>44293</v>
       </c>
       <c r="D38" t="s">
-        <v>1212</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C39" s="32">
+        <v>43351</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
         <v>1284</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>1285</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C40" s="32">
         <v>45277</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>1286</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="E46" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C41" s="32">
+        <v>45286</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="E47" t="s">
         <v>1141</v>
       </c>
     </row>

--- a/아버지_부조금.xlsx
+++ b/아버지_부조금.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="장례식장받은것" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="1301">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8392,6 +8392,38 @@
   <si>
     <t>조모별세</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2024-01-09 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장인별세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부조않음</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8729,11 +8761,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8743,15 +8784,6 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14082,8 +14114,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="B78" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
+      <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14734,127 +14766,127 @@
   <sheetData>
     <row r="1" spans="1:13" ht="48" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18.95" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="48">
         <v>6490000</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.1" customHeight="1" thickBot="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="43" t="s">
         <v>432</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -17252,6 +17284,9 @@
       <c r="M80" s="9" t="s">
         <v>1043</v>
       </c>
+      <c r="N80" s="9" t="s">
+        <v>1300</v>
+      </c>
     </row>
     <row r="81" spans="1:13" ht="30" customHeight="1">
       <c r="A81" s="8"/>
@@ -19242,28 +19277,22 @@
     </row>
     <row r="142" spans="1:13" ht="41.1" customHeight="1">
       <c r="A142" s="8"/>
-      <c r="B142" s="43" t="s">
+      <c r="B142" s="46" t="s">
         <v>921</v>
       </c>
-      <c r="C142" s="43"/>
-      <c r="D142" s="43"/>
-      <c r="E142" s="43"/>
-      <c r="F142" s="43"/>
-      <c r="G142" s="43"/>
-      <c r="H142" s="43"/>
-      <c r="I142" s="43"/>
-      <c r="J142" s="43"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="46"/>
+      <c r="H142" s="46"/>
+      <c r="I142" s="46"/>
+      <c r="J142" s="46"/>
       <c r="K142" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:WVT142"/>
   <mergeCells count="15">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:J4"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="B142:J142"/>
@@ -19273,6 +19302,12 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
@@ -19481,8 +19516,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/아버지_부조금.xlsx
+++ b/아버지_부조금.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="장례식장받은것" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="1303">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8424,6 +8424,67 @@
       <t>부조않음</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2024-01-26 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부친별세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만원부의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>김균호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14114,8 +14175,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
-      <selection activeCell="M80" sqref="M80"/>
+    <sheetView topLeftCell="B126" workbookViewId="0">
+      <selection activeCell="M135" sqref="M135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -19080,6 +19141,9 @@
         <v>901</v>
       </c>
       <c r="K135" s="8"/>
+      <c r="M135" s="9" t="s">
+        <v>1301</v>
+      </c>
     </row>
     <row r="136" spans="1:13" ht="30" customHeight="1">
       <c r="A136" s="8"/>
@@ -19514,10 +19578,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20287,78 +20351,118 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="C36" s="32"/>
-      <c r="E36" s="32"/>
+      <c r="A36" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C36" s="32">
+        <v>45315</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E36" s="32">
+        <v>45321</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1088</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" t="s">
+      <c r="C37" s="32"/>
+      <c r="E37" s="32"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="C38" s="32"/>
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="C39" s="32"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="C40" s="32"/>
+      <c r="E40" s="32"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="C41" s="32"/>
+      <c r="E41" s="32"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="C42" s="32"/>
+      <c r="E42" s="32"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
         <v>1118</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B44" t="s">
         <v>1117</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C44" s="32">
         <v>44293</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D44" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
         <v>1213</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B45" t="s">
         <v>1211</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C45" s="32">
         <v>43351</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D45" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
         <v>1284</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B46" t="s">
         <v>1285</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C46" s="32">
         <v>45277</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D46" t="s">
         <v>1286</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E46" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
         <v>1296</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B47" t="s">
         <v>1294</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C47" s="32">
         <v>45286</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D47" t="s">
         <v>1295</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E47" s="32" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="E47" t="s">
+    <row r="53" spans="5:5">
+      <c r="E53" t="s">
         <v>1141</v>
       </c>
     </row>

--- a/아버지_부조금.xlsx
+++ b/아버지_부조금.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="1305">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8484,6 +8484,14 @@
   </si>
   <si>
     <t>김균호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-02-24 장인별세, 부조않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장인상, 부조않음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8822,20 +8830,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8845,6 +8844,15 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -13305,8 +13313,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13772,6 +13780,9 @@
     <row r="62" spans="2:3">
       <c r="B62" t="s">
         <v>944</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -14827,127 +14838,127 @@
   <sheetData>
     <row r="1" spans="1:13" ht="48" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18.95" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="45">
         <v>6490000</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.1" customHeight="1" thickBot="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="43" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -19341,22 +19352,28 @@
     </row>
     <row r="142" spans="1:13" ht="41.1" customHeight="1">
       <c r="A142" s="8"/>
-      <c r="B142" s="46" t="s">
+      <c r="B142" s="43" t="s">
         <v>921</v>
       </c>
-      <c r="C142" s="46"/>
-      <c r="D142" s="46"/>
-      <c r="E142" s="46"/>
-      <c r="F142" s="46"/>
-      <c r="G142" s="46"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="46"/>
-      <c r="J142" s="46"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="43"/>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="43"/>
       <c r="K142" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:WVT142"/>
   <mergeCells count="15">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="B142:J142"/>
@@ -19366,12 +19383,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
@@ -19581,7 +19592,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19893,6 +19904,12 @@
       <c r="F14" t="s">
         <v>1137</v>
       </c>
+      <c r="G14" s="32">
+        <v>45346</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1304</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">

--- a/아버지_부조금.xlsx
+++ b/아버지_부조금.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="장례식장받은것" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="1307">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8492,6 +8492,14 @@
   </si>
   <si>
     <t>장인상, 부조않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-03-12 부친상(아래5만원)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-03-12 시부상 5만원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8830,11 +8838,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8844,15 +8861,6 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -13313,8 +13321,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13884,48 +13892,54 @@
         <v>967</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:4">
       <c r="B81" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="2:4">
       <c r="B82" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:4">
       <c r="B83" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:4">
       <c r="B84" s="40" t="s">
         <v>975</v>
       </c>
       <c r="C84" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="85" spans="2:3">
+      <c r="D84" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
       <c r="B85" s="40" t="s">
         <v>1279</v>
       </c>
       <c r="C85" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="86" spans="2:3">
+      <c r="D85" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
       <c r="B86" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="87" spans="2:3">
+    <row r="87" spans="2:4">
       <c r="B87" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="88" spans="2:3">
+    <row r="88" spans="2:4">
       <c r="B88" s="21" t="s">
         <v>978</v>
       </c>
@@ -13933,42 +13947,42 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
+    <row r="89" spans="2:4">
       <c r="B89" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
+    <row r="90" spans="2:4">
       <c r="B90" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
+    <row r="91" spans="2:4">
       <c r="B91" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="2:4">
       <c r="B92" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="93" spans="2:3">
+    <row r="93" spans="2:4">
       <c r="B93" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="2:4">
       <c r="B94" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="2:4">
       <c r="B95" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="96" spans="2:3">
+    <row r="96" spans="2:4">
       <c r="B96" t="s">
         <v>1009</v>
       </c>
@@ -14838,127 +14852,127 @@
   <sheetData>
     <row r="1" spans="1:13" ht="48" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18.95" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="48">
         <v>6490000</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.1" customHeight="1" thickBot="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="43" t="s">
         <v>432</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -19352,28 +19366,22 @@
     </row>
     <row r="142" spans="1:13" ht="41.1" customHeight="1">
       <c r="A142" s="8"/>
-      <c r="B142" s="43" t="s">
+      <c r="B142" s="46" t="s">
         <v>921</v>
       </c>
-      <c r="C142" s="43"/>
-      <c r="D142" s="43"/>
-      <c r="E142" s="43"/>
-      <c r="F142" s="43"/>
-      <c r="G142" s="43"/>
-      <c r="H142" s="43"/>
-      <c r="I142" s="43"/>
-      <c r="J142" s="43"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="46"/>
+      <c r="H142" s="46"/>
+      <c r="I142" s="46"/>
+      <c r="J142" s="46"/>
       <c r="K142" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:WVT142"/>
   <mergeCells count="15">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:J4"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="B142:J142"/>
@@ -19383,6 +19391,12 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
@@ -19591,7 +19605,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/아버지_부조금.xlsx
+++ b/아버지_부조금.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="장례식장받은것" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1308">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8501,6 +8501,72 @@
   <si>
     <t>2024-03-12 시부상 5만원</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2024-03-30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장녀결혼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2024-03-19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부조</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8838,20 +8904,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8861,6 +8918,15 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -13321,7 +13387,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+    <sheetView topLeftCell="A68" workbookViewId="0">
       <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
@@ -14200,8 +14266,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="B126" workbookViewId="0">
-      <selection activeCell="M135" sqref="M135"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14852,127 +14918,127 @@
   <sheetData>
     <row r="1" spans="1:13" ht="48" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18.95" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="45">
         <v>6490000</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.1" customHeight="1" thickBot="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="43" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -16036,6 +16102,9 @@
         <v>573</v>
       </c>
       <c r="K40" s="8"/>
+      <c r="M40" s="9" t="s">
+        <v>1307</v>
+      </c>
     </row>
     <row r="41" spans="1:17" ht="30" customHeight="1">
       <c r="A41" s="8"/>
@@ -19366,22 +19435,28 @@
     </row>
     <row r="142" spans="1:13" ht="41.1" customHeight="1">
       <c r="A142" s="8"/>
-      <c r="B142" s="46" t="s">
+      <c r="B142" s="43" t="s">
         <v>921</v>
       </c>
-      <c r="C142" s="46"/>
-      <c r="D142" s="46"/>
-      <c r="E142" s="46"/>
-      <c r="F142" s="46"/>
-      <c r="G142" s="46"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="46"/>
-      <c r="J142" s="46"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="43"/>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="43"/>
       <c r="K142" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:WVT142"/>
   <mergeCells count="15">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="B142:J142"/>
@@ -19391,12 +19466,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>

--- a/아버지_부조금.xlsx
+++ b/아버지_부조금.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="장례식장받은것" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="1309">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8565,6 +8565,38 @@
         <charset val="129"/>
       </rPr>
       <t>부조</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2024-05-18 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장녀결혼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만원부조</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8904,11 +8936,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8918,15 +8959,6 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14266,8 +14298,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14918,127 +14950,127 @@
   <sheetData>
     <row r="1" spans="1:13" ht="48" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18.95" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="48">
         <v>6490000</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.1" customHeight="1" thickBot="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="43" t="s">
         <v>432</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -15323,7 +15355,7 @@
       </c>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1">
+    <row r="17" spans="1:14" ht="30" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="13" t="s">
         <v>481</v>
@@ -15354,7 +15386,7 @@
       </c>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1">
+    <row r="18" spans="1:14" ht="30" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="13" t="s">
         <v>485</v>
@@ -15385,7 +15417,7 @@
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1">
+    <row r="19" spans="1:14" ht="30" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="13" t="s">
         <v>489</v>
@@ -15416,7 +15448,7 @@
       </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1">
+    <row r="20" spans="1:14" ht="30" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="13" t="s">
         <v>493</v>
@@ -15449,8 +15481,11 @@
       <c r="M20" s="9" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1">
+      <c r="N20" s="9" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="30" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="13" t="s">
         <v>496</v>
@@ -15481,7 +15516,7 @@
       </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1">
+    <row r="22" spans="1:14" ht="30" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="13" t="s">
         <v>499</v>
@@ -15512,7 +15547,7 @@
       </c>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1">
+    <row r="23" spans="1:14" ht="30" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="13" t="s">
         <v>502</v>
@@ -15546,7 +15581,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1">
+    <row r="24" spans="1:14" ht="30" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="13" t="s">
         <v>505</v>
@@ -15577,7 +15612,7 @@
       </c>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1">
+    <row r="25" spans="1:14" ht="30" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="13" t="s">
         <v>508</v>
@@ -15611,7 +15646,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1">
+    <row r="26" spans="1:14" ht="30" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="13" t="s">
         <v>511</v>
@@ -15642,7 +15677,7 @@
       </c>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1">
+    <row r="27" spans="1:14" ht="30" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="13" t="s">
         <v>516</v>
@@ -15676,7 +15711,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1">
+    <row r="28" spans="1:14" ht="30" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="13" t="s">
         <v>520</v>
@@ -15710,7 +15745,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1">
+    <row r="29" spans="1:14" ht="30" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="13" t="s">
         <v>524</v>
@@ -15741,7 +15776,7 @@
       </c>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1">
+    <row r="30" spans="1:14" ht="30" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="13" t="s">
         <v>528</v>
@@ -15772,7 +15807,7 @@
       </c>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1">
+    <row r="31" spans="1:14" ht="30" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="13" t="s">
         <v>532</v>
@@ -15803,7 +15838,7 @@
       </c>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:13" ht="30" customHeight="1">
+    <row r="32" spans="1:14" ht="30" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="13" t="s">
         <v>535</v>
@@ -19435,28 +19470,22 @@
     </row>
     <row r="142" spans="1:13" ht="41.1" customHeight="1">
       <c r="A142" s="8"/>
-      <c r="B142" s="43" t="s">
+      <c r="B142" s="46" t="s">
         <v>921</v>
       </c>
-      <c r="C142" s="43"/>
-      <c r="D142" s="43"/>
-      <c r="E142" s="43"/>
-      <c r="F142" s="43"/>
-      <c r="G142" s="43"/>
-      <c r="H142" s="43"/>
-      <c r="I142" s="43"/>
-      <c r="J142" s="43"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="46"/>
+      <c r="H142" s="46"/>
+      <c r="I142" s="46"/>
+      <c r="J142" s="46"/>
       <c r="K142" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:WVT142"/>
   <mergeCells count="15">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:J4"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="B142:J142"/>
@@ -19466,6 +19495,12 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
@@ -19674,8 +19709,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20322,7 +20357,7 @@
       <c r="A30" t="s">
         <v>1093</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="21" t="s">
         <v>1241</v>
       </c>
       <c r="C30" s="32">

--- a/아버지_부조금.xlsx
+++ b/아버지_부조금.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="장례식장받은것" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1310">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5613,10 +5613,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2018-2-26 부친부고, 안함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">2018-10-27 </t>
     </r>
@@ -8599,6 +8595,14 @@
       <t>만원부조</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-05-29 부친별세, 안함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-02-26 부친부고, 안함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8936,20 +8940,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8959,6 +8954,15 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9336,10 +9340,10 @@
         <v>33</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G5" t="s">
         <v>1259</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9559,7 +9563,7 @@
         <v>33</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -9613,7 +9617,7 @@
         <v>33</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -9820,7 +9824,7 @@
         <v>33</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -10889,7 +10893,7 @@
         <v>33</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -10909,7 +10913,7 @@
         <v>33</v>
       </c>
       <c r="G100" s="27" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -10983,10 +10987,10 @@
         <v>1045</v>
       </c>
       <c r="H104" s="27" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I104" s="27" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -11121,7 +11125,7 @@
         <v>33</v>
       </c>
       <c r="G112" s="27" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -11256,7 +11260,7 @@
         <v>33</v>
       </c>
       <c r="G120" s="27" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -11276,7 +11280,7 @@
         <v>33</v>
       </c>
       <c r="G121" s="27" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -11639,7 +11643,7 @@
         <v>33</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -11659,7 +11663,7 @@
         <v>33</v>
       </c>
       <c r="G144" s="27" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -12606,7 +12610,7 @@
         <v>141</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -13419,8 +13423,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13465,7 +13469,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -13513,7 +13517,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -13531,7 +13535,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -13620,7 +13624,7 @@
         <v>50000</v>
       </c>
       <c r="F14" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -13654,7 +13658,7 @@
         <v>1039</v>
       </c>
       <c r="D22" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -13669,7 +13673,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -13680,10 +13684,10 @@
         <v>981</v>
       </c>
       <c r="C26" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D26" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -13699,12 +13703,12 @@
         <v>938</v>
       </c>
       <c r="C28" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -13714,7 +13718,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="21" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -13758,7 +13762,7 @@
         <v>985</v>
       </c>
       <c r="C39" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -13786,13 +13790,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B44" t="s">
         <v>1176</v>
       </c>
-      <c r="B44" t="s">
-        <v>1177</v>
-      </c>
       <c r="C44" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -13807,10 +13811,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="B47" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C47" t="s">
         <v>1170</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -13888,7 +13892,7 @@
         <v>944</v>
       </c>
       <c r="C62" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -13896,7 +13900,7 @@
         <v>945</v>
       </c>
       <c r="C63" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -13962,7 +13966,7 @@
         <v>1050</v>
       </c>
       <c r="C75" t="s">
-        <v>1051</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="76" spans="2:4">
@@ -13974,6 +13978,9 @@
       <c r="B77" t="s">
         <v>964</v>
       </c>
+      <c r="C77" t="s">
+        <v>1308</v>
+      </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" t="s">
@@ -14010,21 +14017,21 @@
         <v>975</v>
       </c>
       <c r="C84" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D84" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="40" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C85" t="s">
         <v>1279</v>
       </c>
-      <c r="C85" t="s">
-        <v>1280</v>
-      </c>
       <c r="D85" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="86" spans="2:4">
@@ -14042,7 +14049,7 @@
         <v>978</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="89" spans="2:4">
@@ -14179,10 +14186,10 @@
         <v>1030</v>
       </c>
       <c r="C112" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F112" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -14202,7 +14209,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="B116" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -14220,7 +14227,7 @@
         <v>983</v>
       </c>
       <c r="C119" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -14230,10 +14237,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="B121" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C121" t="s">
         <v>1077</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -14241,10 +14248,10 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C122" t="s">
         <v>1205</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -14254,10 +14261,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="B124" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C124" t="s">
         <v>1281</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -14273,18 +14280,18 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C127" t="s">
         <v>1207</v>
-      </c>
-      <c r="C127" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C129" t="s">
         <v>1263</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1264</v>
       </c>
     </row>
   </sheetData>
@@ -14950,127 +14957,127 @@
   <sheetData>
     <row r="1" spans="1:13" ht="48" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18.95" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="45">
         <v>6490000</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.1" customHeight="1" thickBot="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="43" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -15321,7 +15328,7 @@
       </c>
       <c r="K15" s="8"/>
       <c r="M15" s="9" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1">
@@ -15479,10 +15486,10 @@
       </c>
       <c r="K20" s="8"/>
       <c r="M20" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
@@ -15578,7 +15585,7 @@
       </c>
       <c r="K23" s="8"/>
       <c r="M23" s="9" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="30" customHeight="1">
@@ -15643,7 +15650,7 @@
       </c>
       <c r="K25" s="8"/>
       <c r="M25" s="34" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
@@ -15996,7 +16003,7 @@
       </c>
       <c r="K36" s="8"/>
       <c r="M36" s="9" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="30" customHeight="1">
@@ -16033,10 +16040,10 @@
         <v>1038</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1">
@@ -16104,7 +16111,7 @@
       </c>
       <c r="K39" s="8"/>
       <c r="M39" s="9" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="30" customHeight="1">
@@ -16138,7 +16145,7 @@
       </c>
       <c r="K40" s="8"/>
       <c r="M40" s="9" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="30" customHeight="1">
@@ -16172,7 +16179,7 @@
       </c>
       <c r="K41" s="8"/>
       <c r="M41" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="30" customHeight="1">
@@ -16205,10 +16212,10 @@
         <v>444</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="30" customHeight="1">
@@ -16304,7 +16311,7 @@
       </c>
       <c r="K45" s="8"/>
       <c r="M45" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="30" customHeight="1">
@@ -16338,10 +16345,10 @@
       </c>
       <c r="K46" s="8"/>
       <c r="M46" s="9" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="30" customHeight="1">
@@ -16375,7 +16382,7 @@
       </c>
       <c r="K47" s="8"/>
       <c r="M47" s="37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="30" customHeight="1">
@@ -16471,7 +16478,7 @@
       </c>
       <c r="K50" s="8"/>
       <c r="M50" s="9" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="30" customHeight="1">
@@ -16687,13 +16694,13 @@
         <v>447</v>
       </c>
       <c r="J57" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L57" s="9" t="s">
         <v>1102</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>1101</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="30" customHeight="1">
@@ -16789,16 +16796,16 @@
       </c>
       <c r="K60" s="8"/>
       <c r="M60" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N60" s="28" t="s">
         <v>1052</v>
       </c>
-      <c r="N60" s="28" t="s">
-        <v>1053</v>
-      </c>
       <c r="O60" s="13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="P60" s="13" t="s">
         <v>1219</v>
-      </c>
-      <c r="P60" s="13" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="30" customHeight="1">
@@ -16835,13 +16842,13 @@
         <v>44317</v>
       </c>
       <c r="N61" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="O61" s="32">
         <v>44307</v>
       </c>
       <c r="P61" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="30" customHeight="1">
@@ -16906,7 +16913,7 @@
       </c>
       <c r="K63" s="8"/>
       <c r="M63" s="9" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="30" customHeight="1">
@@ -16971,7 +16978,7 @@
       </c>
       <c r="K65" s="8"/>
       <c r="M65" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="30" customHeight="1">
@@ -17005,10 +17012,10 @@
       </c>
       <c r="K66" s="8"/>
       <c r="M66" s="9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="30" customHeight="1">
@@ -17110,10 +17117,10 @@
         <v>44485</v>
       </c>
       <c r="N69" s="35" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="30" customHeight="1">
@@ -17339,13 +17346,13 @@
         <v>44343</v>
       </c>
       <c r="N76" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="O76" s="32">
         <v>44343</v>
       </c>
       <c r="P76" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="30" customHeight="1">
@@ -17475,7 +17482,7 @@
         <v>1043</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="30" customHeight="1">
@@ -17509,7 +17516,7 @@
       </c>
       <c r="K81" s="8"/>
       <c r="M81" s="9" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="30" customHeight="1">
@@ -17543,10 +17550,10 @@
       </c>
       <c r="K82" s="8"/>
       <c r="L82" s="36" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="30" customHeight="1">
@@ -17800,7 +17807,7 @@
       </c>
       <c r="K90" s="8"/>
       <c r="M90" s="9" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="30" customHeight="1">
@@ -17958,7 +17965,7 @@
       </c>
       <c r="K95" s="8"/>
       <c r="M95" s="9" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="30" customHeight="1">
@@ -18057,10 +18064,10 @@
         <v>1046</v>
       </c>
       <c r="N98" s="23" t="s">
+        <v>1064</v>
+      </c>
+      <c r="O98" s="9" t="s">
         <v>1065</v>
-      </c>
-      <c r="O98" s="9" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="30" customHeight="1">
@@ -18125,10 +18132,10 @@
       </c>
       <c r="K100" s="8"/>
       <c r="M100" s="23" t="s">
+        <v>1195</v>
+      </c>
+      <c r="N100" s="34" t="s">
         <v>1196</v>
-      </c>
-      <c r="N100" s="34" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="30" customHeight="1">
@@ -18162,10 +18169,10 @@
       </c>
       <c r="K101" s="8"/>
       <c r="N101" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="O101" s="9" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="30" customHeight="1">
@@ -18233,7 +18240,7 @@
         <v>1048</v>
       </c>
       <c r="N103" s="9" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="30" customHeight="1">
@@ -18332,10 +18339,10 @@
         <v>44592</v>
       </c>
       <c r="N106" s="9" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="O106" s="9" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="30" customHeight="1">
@@ -18781,7 +18788,7 @@
       </c>
       <c r="K120" s="8"/>
       <c r="M120" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="30" customHeight="1">
@@ -18846,7 +18853,7 @@
       </c>
       <c r="K122" s="8"/>
       <c r="M122" s="9" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="30" customHeight="1">
@@ -18880,7 +18887,7 @@
       </c>
       <c r="K123" s="8"/>
       <c r="M123" s="9" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="30" customHeight="1">
@@ -18945,10 +18952,10 @@
       </c>
       <c r="K125" s="8"/>
       <c r="M125" s="28" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N125" s="28" t="s">
         <v>1054</v>
-      </c>
-      <c r="N125" s="28" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="30" customHeight="1">
@@ -19044,7 +19051,7 @@
       </c>
       <c r="K128" s="8"/>
       <c r="M128" s="9" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="30" customHeight="1">
@@ -19140,7 +19147,7 @@
       </c>
       <c r="K131" s="8"/>
       <c r="M131" s="28" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="30" customHeight="1">
@@ -19174,7 +19181,7 @@
       </c>
       <c r="K132" s="8"/>
       <c r="M132" s="9" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="30" customHeight="1">
@@ -19271,7 +19278,7 @@
       </c>
       <c r="K135" s="8"/>
       <c r="M135" s="9" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="30" customHeight="1">
@@ -19336,7 +19343,7 @@
       </c>
       <c r="K137" s="8"/>
       <c r="M137" s="34" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="30" customHeight="1">
@@ -19370,7 +19377,7 @@
       </c>
       <c r="K138" s="8"/>
       <c r="M138" s="9" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="30" customHeight="1">
@@ -19403,7 +19410,7 @@
         <v>444</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="30" customHeight="1">
@@ -19470,22 +19477,28 @@
     </row>
     <row r="142" spans="1:13" ht="41.1" customHeight="1">
       <c r="A142" s="8"/>
-      <c r="B142" s="46" t="s">
+      <c r="B142" s="43" t="s">
         <v>921</v>
       </c>
-      <c r="C142" s="46"/>
-      <c r="D142" s="46"/>
-      <c r="E142" s="46"/>
-      <c r="F142" s="46"/>
-      <c r="G142" s="46"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="46"/>
-      <c r="J142" s="46"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="43"/>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="43"/>
       <c r="K142" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:WVT142"/>
   <mergeCells count="15">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="B142:J142"/>
@@ -19495,12 +19508,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
@@ -19709,8 +19716,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19725,368 +19732,368 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B2" t="s">
         <v>1071</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1072</v>
       </c>
       <c r="C2" s="32">
         <v>43870</v>
       </c>
       <c r="D2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E2" s="32">
         <v>43861</v>
       </c>
       <c r="F2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C3" s="33">
         <v>43485</v>
       </c>
       <c r="D3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E3" s="32">
         <v>43485</v>
       </c>
       <c r="F3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B4" t="s">
         <v>1085</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1086</v>
       </c>
       <c r="C4" s="32">
         <v>44104</v>
       </c>
       <c r="D4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E4" s="32">
         <v>44110</v>
       </c>
       <c r="F4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B5" t="s">
         <v>1089</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1090</v>
       </c>
       <c r="C5" s="32">
         <v>44120</v>
       </c>
       <c r="D5" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E5" s="32">
         <v>44120</v>
       </c>
       <c r="F5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>1093</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1094</v>
       </c>
       <c r="C6" s="32">
         <v>44132</v>
       </c>
       <c r="D6" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E6" s="32">
         <v>44132</v>
       </c>
       <c r="F6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G6" s="32">
         <v>44716</v>
       </c>
       <c r="H6" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I6" s="32">
         <v>44719</v>
       </c>
       <c r="J6" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>1265</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>1266</v>
       </c>
       <c r="C7" s="32">
         <v>45177</v>
       </c>
       <c r="D7" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E7" s="32">
         <v>45182</v>
       </c>
       <c r="F7" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G7" s="32"/>
       <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C8" s="32">
         <v>44178</v>
       </c>
       <c r="D8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E8" s="32">
         <v>44167</v>
       </c>
       <c r="F8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B9" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C9" s="32">
         <v>44235</v>
       </c>
       <c r="D9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E9" s="32">
         <v>44235</v>
       </c>
       <c r="F9" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B10" t="s">
         <v>1108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1109</v>
       </c>
       <c r="C10" s="32">
         <v>44269</v>
       </c>
       <c r="D10" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E10" s="32">
         <v>44263</v>
       </c>
       <c r="F10" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H10" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B11" t="s">
         <v>1125</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1126</v>
       </c>
       <c r="C11" s="32">
         <v>44317</v>
       </c>
       <c r="D11" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E11" s="32">
         <v>44307</v>
       </c>
       <c r="F11" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G11" s="32">
         <v>44991</v>
       </c>
       <c r="H11" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B12" t="s">
         <v>1129</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1130</v>
       </c>
       <c r="C12" s="32">
         <v>44314</v>
       </c>
       <c r="D12" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E12" s="32">
         <v>44314</v>
       </c>
       <c r="F12" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B13" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C13" s="32">
         <v>44293</v>
       </c>
       <c r="D13" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E13" s="32">
         <v>44293</v>
       </c>
       <c r="F13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>1134</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>1135</v>
       </c>
       <c r="C14" s="32">
         <v>44326</v>
       </c>
       <c r="D14" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E14" s="32">
         <v>44326</v>
       </c>
       <c r="F14" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G14" s="32">
         <v>45346</v>
       </c>
       <c r="H14" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>1139</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>1140</v>
       </c>
       <c r="C15" s="32">
         <v>44330</v>
       </c>
       <c r="D15" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E15" s="32">
         <v>44333</v>
       </c>
       <c r="F15" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B16" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C16" s="32">
         <v>44343</v>
       </c>
       <c r="D16" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E16" s="32">
         <v>44343</v>
       </c>
       <c r="F16" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B17" t="s">
         <v>1144</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1145</v>
       </c>
       <c r="C17" s="32">
         <v>44351</v>
       </c>
       <c r="D17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E17" s="32">
         <v>44352</v>
       </c>
       <c r="F17" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -20094,105 +20101,105 @@
         <v>407</v>
       </c>
       <c r="B18" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C18" s="32">
         <v>44365</v>
       </c>
       <c r="D18" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E18" s="32">
         <v>44365</v>
       </c>
       <c r="F18" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C19" s="32">
         <v>44373</v>
       </c>
       <c r="D19" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E19" s="32">
         <v>44368</v>
       </c>
       <c r="F19" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B20" t="s">
         <v>1151</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1152</v>
       </c>
       <c r="C20" s="32">
         <v>44369</v>
       </c>
       <c r="D20" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E20" s="32">
         <v>44370</v>
       </c>
       <c r="F20" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B21" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C21" s="32">
         <v>44387</v>
       </c>
       <c r="D21" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E21" s="32">
         <v>44379</v>
       </c>
       <c r="F21" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H21" t="s">
         <v>1156</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B22" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C22" s="32">
         <v>44440</v>
       </c>
       <c r="D22" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E22" s="32">
         <v>44445</v>
       </c>
       <c r="F22" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H22" s="32">
         <v>45286</v>
@@ -20200,309 +20207,309 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B23" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C23" s="32">
         <v>44630</v>
       </c>
       <c r="D23" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E23" s="32">
         <v>44631</v>
       </c>
       <c r="F23" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H23" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B24" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C24" s="32">
         <v>44710</v>
       </c>
       <c r="D24" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E24" s="32">
         <v>44700</v>
       </c>
       <c r="F24" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B25" t="s">
         <v>1192</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1193</v>
       </c>
       <c r="C25" s="32">
         <v>44803</v>
       </c>
       <c r="D25" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E25" s="32">
         <v>44804</v>
       </c>
       <c r="F25" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H25" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B26" t="s">
         <v>1215</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1216</v>
       </c>
       <c r="C26" s="32">
         <v>44583</v>
       </c>
       <c r="D26" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E26" s="32">
         <v>44580</v>
       </c>
       <c r="F26" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B27" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C27" s="32">
         <v>44877</v>
       </c>
       <c r="D27" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E27" s="32">
         <v>44879</v>
       </c>
       <c r="F27" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H27" t="s">
         <v>1226</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B28" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C28" s="32">
         <v>44922</v>
       </c>
       <c r="D28" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E28" s="32">
         <v>44923</v>
       </c>
       <c r="F28" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H28" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>1234</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>1235</v>
       </c>
       <c r="C29" s="32">
         <v>44937</v>
       </c>
       <c r="D29" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E29" s="32">
         <v>44937</v>
       </c>
       <c r="F29" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H29" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C30" s="32">
         <v>44951</v>
       </c>
       <c r="D30" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E30" s="32">
         <v>44951</v>
       </c>
       <c r="F30" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H30" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J30" t="s">
         <v>1239</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B31" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C31" s="32">
         <v>44995</v>
       </c>
       <c r="D31" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E31" s="32">
         <v>44999</v>
       </c>
       <c r="F31" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H31" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B32" t="s">
         <v>1250</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1251</v>
       </c>
       <c r="C32" s="32">
         <v>45014</v>
       </c>
       <c r="D32" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E32" s="32">
         <v>45015</v>
       </c>
       <c r="F32" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H32" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B33" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C33" s="32">
         <v>45270</v>
       </c>
       <c r="D33" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E33" s="32">
         <v>45259</v>
       </c>
       <c r="F33" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B34" t="s">
         <v>1288</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1289</v>
       </c>
       <c r="C34" s="32">
         <v>45276</v>
       </c>
       <c r="D34" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E34" s="32">
         <v>45278</v>
       </c>
       <c r="F34" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B35" t="s">
         <v>1297</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1298</v>
       </c>
       <c r="C35" s="32">
         <v>45294</v>
       </c>
       <c r="D35" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E35" s="32">
         <v>45294</v>
       </c>
       <c r="F35" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C36" s="32">
         <v>45315</v>
       </c>
       <c r="D36" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E36" s="32">
         <v>45321</v>
       </c>
       <c r="F36" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -20531,74 +20538,74 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B44" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C44" s="32">
         <v>44293</v>
       </c>
       <c r="D44" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B45" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C45" s="32">
         <v>43351</v>
       </c>
       <c r="D45" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B46" t="s">
         <v>1284</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1285</v>
       </c>
       <c r="C46" s="32">
         <v>45277</v>
       </c>
       <c r="D46" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E46" t="s">
         <v>1286</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B47" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C47" s="32">
         <v>45286</v>
       </c>
       <c r="D47" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="53" spans="5:5">
       <c r="E53" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>

--- a/아버지_부조금.xlsx
+++ b/아버지_부조금.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="장례식장받은것" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="1315">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8602,6 +8602,26 @@
   </si>
   <si>
     <t>2018-02-26 부친부고, 안함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세정과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송보영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4만원부조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주시 아모르홀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8940,11 +8960,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8954,15 +8983,6 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -13423,7 +13443,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
@@ -14957,127 +14977,127 @@
   <sheetData>
     <row r="1" spans="1:13" ht="48" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18.95" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="48">
         <v>6490000</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.1" customHeight="1" thickBot="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="43" t="s">
         <v>432</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -19477,28 +19497,22 @@
     </row>
     <row r="142" spans="1:13" ht="41.1" customHeight="1">
       <c r="A142" s="8"/>
-      <c r="B142" s="43" t="s">
+      <c r="B142" s="46" t="s">
         <v>921</v>
       </c>
-      <c r="C142" s="43"/>
-      <c r="D142" s="43"/>
-      <c r="E142" s="43"/>
-      <c r="F142" s="43"/>
-      <c r="G142" s="43"/>
-      <c r="H142" s="43"/>
-      <c r="I142" s="43"/>
-      <c r="J142" s="43"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="46"/>
+      <c r="H142" s="46"/>
+      <c r="I142" s="46"/>
+      <c r="J142" s="46"/>
       <c r="K142" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:WVT142"/>
   <mergeCells count="15">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:J4"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="B142:J142"/>
@@ -19508,6 +19522,12 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
@@ -19716,8 +19736,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20432,7 +20452,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>1249</v>
       </c>
@@ -20452,7 +20472,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>1287</v>
       </c>
@@ -20472,7 +20492,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>1296</v>
       </c>
@@ -20492,7 +20512,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>1287</v>
       </c>
@@ -20512,36 +20532,55 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="C37" s="32"/>
-      <c r="E37" s="32"/>
-    </row>
-    <row r="38" spans="1:6">
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C37" s="32">
+        <v>45465</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E37" s="32">
+        <v>45461</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="C38" s="32"/>
       <c r="E38" s="32"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:8">
       <c r="C39" s="32"/>
       <c r="E39" s="32"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:8">
       <c r="C40" s="32"/>
       <c r="E40" s="32"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:8">
       <c r="C41" s="32"/>
       <c r="E41" s="32"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:8">
       <c r="C42" s="32"/>
       <c r="E42" s="32"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>1117</v>
       </c>
@@ -20555,7 +20594,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>1212</v>
       </c>
@@ -20569,7 +20608,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>1283</v>
       </c>
@@ -20586,7 +20625,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>1295</v>
       </c>

--- a/아버지_부조금.xlsx
+++ b/아버지_부조금.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20411"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Programming\01_ProgrammingPractice\Angular\ChangwonLife\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CE5965-4987-47DF-9D12-3057754351E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="장례식장받은것" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="1318">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8624,16 +8625,28 @@
     <t>청주시 아모르홀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>세정과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김명곤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모친별세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0&quot;원&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8960,20 +8973,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8984,11 +8988,20 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -9079,6 +9092,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -9114,6 +9144,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9289,7 +9336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:I251"/>
   <sheetViews>
@@ -9298,7 +9345,7 @@
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="6" customWidth="1"/>
@@ -9309,7 +9356,7 @@
     <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" s="5" customFormat="1">
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -9326,7 +9373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -9343,7 +9390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -9366,7 +9413,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -9383,7 +9430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -9398,7 +9445,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -9413,7 +9460,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -9430,7 +9477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -9447,7 +9494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -9464,7 +9511,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -9481,7 +9528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -9498,7 +9545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -9515,7 +9562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -9532,7 +9579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -9549,7 +9596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -9566,7 +9613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -9586,7 +9633,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -9603,7 +9650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -9620,7 +9667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -9640,7 +9687,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -9657,7 +9704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -9674,7 +9721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -9691,7 +9738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -9708,7 +9755,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -9725,7 +9772,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -9742,7 +9789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -9759,7 +9806,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -9776,7 +9823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -9793,7 +9840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -9810,7 +9857,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -9827,7 +9874,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -9847,7 +9894,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -9864,7 +9911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -9881,7 +9928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -9898,7 +9945,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -9913,7 +9960,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -9928,7 +9975,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -9943,7 +9990,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -9960,7 +10007,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -9977,7 +10024,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -9992,7 +10039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -10009,7 +10056,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -10026,7 +10073,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -10043,7 +10090,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -10058,7 +10105,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -10073,7 +10120,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -10090,7 +10137,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -10107,7 +10154,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -10122,7 +10169,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -10139,7 +10186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -10156,7 +10203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -10173,7 +10220,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -10190,7 +10237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -10205,7 +10252,7 @@
       </c>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -10222,7 +10269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -10239,7 +10286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -10256,7 +10303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -10273,7 +10320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -10290,7 +10337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -10305,7 +10352,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -10322,7 +10369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -10339,7 +10386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -10354,7 +10401,7 @@
       </c>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -10371,7 +10418,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -10388,7 +10435,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -10403,7 +10450,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -10420,7 +10467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -10435,7 +10482,7 @@
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -10450,7 +10497,7 @@
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -10467,7 +10514,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>69</v>
       </c>
@@ -10484,7 +10531,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>70</v>
       </c>
@@ -10499,7 +10546,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>71</v>
       </c>
@@ -10514,7 +10561,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>72</v>
       </c>
@@ -10527,7 +10574,7 @@
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>73</v>
       </c>
@@ -10544,7 +10591,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>74</v>
       </c>
@@ -10557,7 +10604,7 @@
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>75</v>
       </c>
@@ -10574,7 +10621,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>76</v>
       </c>
@@ -10591,7 +10638,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>77</v>
       </c>
@@ -10608,7 +10655,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>78</v>
       </c>
@@ -10625,7 +10672,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>79</v>
       </c>
@@ -10640,7 +10687,7 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>80</v>
       </c>
@@ -10655,7 +10702,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>81</v>
       </c>
@@ -10670,7 +10717,7 @@
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="24">
         <v>82</v>
       </c>
@@ -10687,7 +10734,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>83</v>
       </c>
@@ -10702,7 +10749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>84</v>
       </c>
@@ -10717,7 +10764,7 @@
       </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>85</v>
       </c>
@@ -10734,7 +10781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>86</v>
       </c>
@@ -10751,7 +10798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>87</v>
       </c>
@@ -10768,7 +10815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>88</v>
       </c>
@@ -10785,7 +10832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>89</v>
       </c>
@@ -10802,7 +10849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>90</v>
       </c>
@@ -10819,7 +10866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>91</v>
       </c>
@@ -10836,7 +10883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>92</v>
       </c>
@@ -10849,7 +10896,7 @@
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>93</v>
       </c>
@@ -10862,7 +10909,7 @@
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>94</v>
       </c>
@@ -10879,7 +10926,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>95</v>
       </c>
@@ -10896,7 +10943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>96</v>
       </c>
@@ -10916,7 +10963,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>97</v>
       </c>
@@ -10936,7 +10983,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>98</v>
       </c>
@@ -10953,7 +11000,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>99</v>
       </c>
@@ -10970,7 +11017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>100</v>
       </c>
@@ -10987,7 +11034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>101</v>
       </c>
@@ -11013,7 +11060,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>102</v>
       </c>
@@ -11030,7 +11077,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>103</v>
       </c>
@@ -11047,7 +11094,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>104</v>
       </c>
@@ -11064,7 +11111,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>105</v>
       </c>
@@ -11079,7 +11126,7 @@
       </c>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>106</v>
       </c>
@@ -11096,7 +11143,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>107</v>
       </c>
@@ -11111,7 +11158,7 @@
       </c>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>108</v>
       </c>
@@ -11128,7 +11175,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>109</v>
       </c>
@@ -11148,7 +11195,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>110</v>
       </c>
@@ -11163,7 +11210,7 @@
       </c>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>111</v>
       </c>
@@ -11180,7 +11227,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>112</v>
       </c>
@@ -11197,7 +11244,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>113</v>
       </c>
@@ -11214,7 +11261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>114</v>
       </c>
@@ -11231,7 +11278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>115</v>
       </c>
@@ -11248,7 +11295,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>116</v>
       </c>
@@ -11263,7 +11310,7 @@
       </c>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>117</v>
       </c>
@@ -11283,7 +11330,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>118</v>
       </c>
@@ -11303,7 +11350,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>119</v>
       </c>
@@ -11320,7 +11367,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>120</v>
       </c>
@@ -11337,7 +11384,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>121</v>
       </c>
@@ -11350,7 +11397,7 @@
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>122</v>
       </c>
@@ -11367,7 +11414,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>123</v>
       </c>
@@ -11384,7 +11431,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>124</v>
       </c>
@@ -11399,7 +11446,7 @@
       </c>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>125</v>
       </c>
@@ -11416,7 +11463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>126</v>
       </c>
@@ -11431,7 +11478,7 @@
       </c>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>127</v>
       </c>
@@ -11448,7 +11495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>128</v>
       </c>
@@ -11465,7 +11512,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>129</v>
       </c>
@@ -11482,7 +11529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>130</v>
       </c>
@@ -11499,7 +11546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>131</v>
       </c>
@@ -11516,7 +11563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>132</v>
       </c>
@@ -11533,7 +11580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>133</v>
       </c>
@@ -11550,7 +11597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>134</v>
       </c>
@@ -11567,7 +11614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>135</v>
       </c>
@@ -11584,7 +11631,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>136</v>
       </c>
@@ -11599,7 +11646,7 @@
       </c>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>137</v>
       </c>
@@ -11614,7 +11661,7 @@
       </c>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>138</v>
       </c>
@@ -11629,7 +11676,7 @@
       </c>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>139</v>
       </c>
@@ -11646,7 +11693,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>140</v>
       </c>
@@ -11666,7 +11713,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>141</v>
       </c>
@@ -11686,7 +11733,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>142</v>
       </c>
@@ -11703,7 +11750,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>143</v>
       </c>
@@ -11720,7 +11767,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>144</v>
       </c>
@@ -11737,7 +11784,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>145</v>
       </c>
@@ -11754,7 +11801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>146</v>
       </c>
@@ -11769,7 +11816,7 @@
       </c>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>147</v>
       </c>
@@ -11786,7 +11833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>148</v>
       </c>
@@ -11803,7 +11850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>149</v>
       </c>
@@ -11820,7 +11867,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>150</v>
       </c>
@@ -11835,7 +11882,7 @@
       </c>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>151</v>
       </c>
@@ -11852,7 +11899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>152</v>
       </c>
@@ -11869,7 +11916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>153</v>
       </c>
@@ -11884,7 +11931,7 @@
       </c>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>154</v>
       </c>
@@ -11899,7 +11946,7 @@
       </c>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>155</v>
       </c>
@@ -11914,7 +11961,7 @@
       </c>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>156</v>
       </c>
@@ -11931,7 +11978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>157</v>
       </c>
@@ -11948,7 +11995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>158</v>
       </c>
@@ -11965,7 +12012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>159</v>
       </c>
@@ -11982,7 +12029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>160</v>
       </c>
@@ -11999,7 +12046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>161</v>
       </c>
@@ -12016,7 +12063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>162</v>
       </c>
@@ -12033,7 +12080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>163</v>
       </c>
@@ -12050,7 +12097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>164</v>
       </c>
@@ -12067,7 +12114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>165</v>
       </c>
@@ -12084,7 +12131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>166</v>
       </c>
@@ -12101,7 +12148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>167</v>
       </c>
@@ -12118,7 +12165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>168</v>
       </c>
@@ -12135,7 +12182,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>169</v>
       </c>
@@ -12148,7 +12195,7 @@
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>170</v>
       </c>
@@ -12165,7 +12212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>171</v>
       </c>
@@ -12182,7 +12229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>172</v>
       </c>
@@ -12199,7 +12246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>173</v>
       </c>
@@ -12216,7 +12263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>174</v>
       </c>
@@ -12233,7 +12280,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>175</v>
       </c>
@@ -12248,7 +12295,7 @@
       </c>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>176</v>
       </c>
@@ -12263,7 +12310,7 @@
       </c>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>177</v>
       </c>
@@ -12280,7 +12327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>178</v>
       </c>
@@ -12297,7 +12344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>179</v>
       </c>
@@ -12314,7 +12361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>180</v>
       </c>
@@ -12331,7 +12378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>181</v>
       </c>
@@ -12348,7 +12395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>182</v>
       </c>
@@ -12365,7 +12412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>183</v>
       </c>
@@ -12382,7 +12429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>184</v>
       </c>
@@ -12399,7 +12446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>185</v>
       </c>
@@ -12416,7 +12463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>186</v>
       </c>
@@ -12433,7 +12480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>187</v>
       </c>
@@ -12450,7 +12497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>188</v>
       </c>
@@ -12467,7 +12514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>189</v>
       </c>
@@ -12484,7 +12531,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>190</v>
       </c>
@@ -12497,7 +12544,7 @@
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>191</v>
       </c>
@@ -12510,7 +12557,7 @@
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>192</v>
       </c>
@@ -12523,7 +12570,7 @@
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>193</v>
       </c>
@@ -12538,7 +12585,7 @@
       </c>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>194</v>
       </c>
@@ -12553,7 +12600,7 @@
       </c>
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>195</v>
       </c>
@@ -12568,7 +12615,7 @@
       </c>
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>196</v>
       </c>
@@ -12583,7 +12630,7 @@
       </c>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>197</v>
       </c>
@@ -12600,7 +12647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>198</v>
       </c>
@@ -12615,7 +12662,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>199</v>
       </c>
@@ -12633,7 +12680,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>200</v>
       </c>
@@ -12650,7 +12697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>201</v>
       </c>
@@ -12665,7 +12712,7 @@
       </c>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>202</v>
       </c>
@@ -12682,7 +12729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>203</v>
       </c>
@@ -12697,7 +12744,7 @@
       </c>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>204</v>
       </c>
@@ -12712,7 +12759,7 @@
       </c>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>205</v>
       </c>
@@ -12727,7 +12774,7 @@
       </c>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>206</v>
       </c>
@@ -12742,7 +12789,7 @@
       </c>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>207</v>
       </c>
@@ -12759,7 +12806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>208</v>
       </c>
@@ -12774,7 +12821,7 @@
       </c>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>209</v>
       </c>
@@ -12789,7 +12836,7 @@
       </c>
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>210</v>
       </c>
@@ -12806,7 +12853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>211</v>
       </c>
@@ -12823,7 +12870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>212</v>
       </c>
@@ -12838,7 +12885,7 @@
       </c>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>213</v>
       </c>
@@ -12853,7 +12900,7 @@
       </c>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>214</v>
       </c>
@@ -12868,7 +12915,7 @@
       </c>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>215</v>
       </c>
@@ -12883,7 +12930,7 @@
       </c>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>216</v>
       </c>
@@ -12898,7 +12945,7 @@
       </c>
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>217</v>
       </c>
@@ -12915,7 +12962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>218</v>
       </c>
@@ -12932,7 +12979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>219</v>
       </c>
@@ -12949,7 +12996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>220</v>
       </c>
@@ -12966,7 +13013,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>221</v>
       </c>
@@ -12983,7 +13030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>222</v>
       </c>
@@ -12998,7 +13045,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>223</v>
       </c>
@@ -13013,7 +13060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>224</v>
       </c>
@@ -13028,7 +13075,7 @@
       </c>
       <c r="E227" s="2"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>225</v>
       </c>
@@ -13045,7 +13092,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>226</v>
       </c>
@@ -13062,7 +13109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>227</v>
       </c>
@@ -13077,7 +13124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>228</v>
       </c>
@@ -13094,7 +13141,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>229</v>
       </c>
@@ -13111,7 +13158,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>230</v>
       </c>
@@ -13128,7 +13175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>231</v>
       </c>
@@ -13145,7 +13192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>232</v>
       </c>
@@ -13162,7 +13209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>233</v>
       </c>
@@ -13179,7 +13226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>234</v>
       </c>
@@ -13196,7 +13243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>235</v>
       </c>
@@ -13213,7 +13260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>236</v>
       </c>
@@ -13230,7 +13277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>237</v>
       </c>
@@ -13247,7 +13294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>238</v>
       </c>
@@ -13264,7 +13311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>239</v>
       </c>
@@ -13281,7 +13328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>240</v>
       </c>
@@ -13298,7 +13345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>241</v>
       </c>
@@ -13315,7 +13362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>242</v>
       </c>
@@ -13332,7 +13379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>243</v>
       </c>
@@ -13349,7 +13396,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>244</v>
       </c>
@@ -13366,7 +13413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>245</v>
       </c>
@@ -13383,7 +13430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>246</v>
       </c>
@@ -13400,7 +13447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>247</v>
       </c>
@@ -13413,7 +13460,7 @@
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>248</v>
       </c>
@@ -13431,7 +13478,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E251"/>
+  <autoFilter ref="A3:E251" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13439,7 +13486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F129"/>
   <sheetViews>
@@ -13447,17 +13494,17 @@
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -13474,7 +13521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -13492,7 +13539,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -13507,7 +13554,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -13522,7 +13569,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -13540,7 +13587,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -13558,7 +13605,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -13573,7 +13620,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -13588,7 +13635,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -13603,7 +13650,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -13618,7 +13665,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -13633,7 +13680,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -13647,20 +13694,20 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>936</v>
       </c>
@@ -13668,12 +13715,12 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>1039</v>
       </c>
@@ -13681,22 +13728,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="b">
         <v>0</v>
       </c>
@@ -13710,12 +13757,12 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="b">
         <v>1</v>
       </c>
@@ -13726,58 +13773,58 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="21" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="21" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>939</v>
       </c>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>985</v>
       </c>
@@ -13785,7 +13832,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>990</v>
       </c>
@@ -13793,22 +13840,22 @@
         <v>958</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1175</v>
       </c>
@@ -13819,17 +13866,17 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>1169</v>
       </c>
@@ -13837,77 +13884,77 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="21" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>944</v>
       </c>
@@ -13915,7 +13962,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>945</v>
       </c>
@@ -13923,22 +13970,22 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="21" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>949</v>
       </c>
@@ -13946,42 +13993,42 @@
         <v>951</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="74" spans="2:4">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="75" spans="2:4">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>1050</v>
       </c>
@@ -13989,12 +14036,12 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="77" spans="2:4">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>964</v>
       </c>
@@ -14002,37 +14049,37 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="78" spans="2:4">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="79" spans="2:4">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="80" spans="2:4">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="40" t="s">
         <v>975</v>
       </c>
@@ -14043,7 +14090,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="40" t="s">
         <v>1278</v>
       </c>
@@ -14054,17 +14101,17 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="21" t="s">
         <v>978</v>
       </c>
@@ -14072,53 +14119,53 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="94" spans="2:4">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="95" spans="2:4">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>1010</v>
       </c>
       <c r="C97" s="19"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>1011</v>
       </c>
@@ -14126,25 +14173,25 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>1014</v>
       </c>
       <c r="C99" s="19"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>1013</v>
       </c>
       <c r="C100" s="19"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>1015</v>
       </c>
       <c r="C101" s="19"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>979</v>
       </c>
@@ -14152,32 +14199,32 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>1024</v>
       </c>
@@ -14191,17 +14238,17 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>1030</v>
       </c>
@@ -14212,37 +14259,37 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>983</v>
       </c>
@@ -14250,12 +14297,12 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>1076</v>
       </c>
@@ -14263,7 +14310,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="b">
         <v>0</v>
       </c>
@@ -14274,12 +14321,12 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>1280</v>
       </c>
@@ -14287,7 +14334,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>1036</v>
       </c>
@@ -14295,7 +14342,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="b">
         <v>0</v>
       </c>
@@ -14306,7 +14353,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>1262</v>
       </c>
@@ -14321,7 +14368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q142"/>
   <sheetViews>
@@ -14329,7 +14376,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.75" style="9" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="9" customWidth="1"/>
@@ -14975,132 +15022,132 @@
     <col min="16141" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="48" customHeight="1">
+    <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:13" ht="18.95" customHeight="1">
+    <row r="4" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="45">
         <v>6490000</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="14.1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="43" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="12" t="s">
         <v>433</v>
@@ -15131,7 +15178,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1">
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="13" t="s">
         <v>442</v>
@@ -15162,7 +15209,7 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1">
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="13" t="s">
         <v>449</v>
@@ -15193,7 +15240,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1">
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="13" t="s">
         <v>454</v>
@@ -15224,7 +15271,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1">
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="13" t="s">
         <v>458</v>
@@ -15255,7 +15302,7 @@
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1">
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="13" t="s">
         <v>463</v>
@@ -15286,7 +15333,7 @@
       </c>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1">
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="13" t="s">
         <v>466</v>
@@ -15317,7 +15364,7 @@
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1">
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="13" t="s">
         <v>470</v>
@@ -15351,7 +15398,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1">
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="13" t="s">
         <v>475</v>
@@ -15382,7 +15429,7 @@
       </c>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1">
+    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="13" t="s">
         <v>481</v>
@@ -15413,7 +15460,7 @@
       </c>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1">
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="13" t="s">
         <v>485</v>
@@ -15444,7 +15491,7 @@
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1">
+    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="13" t="s">
         <v>489</v>
@@ -15475,7 +15522,7 @@
       </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1">
+    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="13" t="s">
         <v>493</v>
@@ -15512,7 +15559,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1">
+    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="13" t="s">
         <v>496</v>
@@ -15543,7 +15590,7 @@
       </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1">
+    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="13" t="s">
         <v>499</v>
@@ -15574,7 +15621,7 @@
       </c>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1">
+    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="13" t="s">
         <v>502</v>
@@ -15608,7 +15655,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1">
+    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="13" t="s">
         <v>505</v>
@@ -15639,7 +15686,7 @@
       </c>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1">
+    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="13" t="s">
         <v>508</v>
@@ -15673,7 +15720,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1">
+    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="13" t="s">
         <v>511</v>
@@ -15704,7 +15751,7 @@
       </c>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1">
+    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="13" t="s">
         <v>516</v>
@@ -15738,7 +15785,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1">
+    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="13" t="s">
         <v>520</v>
@@ -15772,7 +15819,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1">
+    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="13" t="s">
         <v>524</v>
@@ -15803,7 +15850,7 @@
       </c>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1">
+    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="13" t="s">
         <v>528</v>
@@ -15834,7 +15881,7 @@
       </c>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1">
+    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="13" t="s">
         <v>532</v>
@@ -15865,7 +15912,7 @@
       </c>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1">
+    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="13" t="s">
         <v>535</v>
@@ -15896,7 +15943,7 @@
       </c>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:17" ht="30" customHeight="1">
+    <row r="33" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="13" t="s">
         <v>540</v>
@@ -15927,7 +15974,7 @@
       </c>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:17" ht="30" customHeight="1">
+    <row r="34" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="13" t="s">
         <v>544</v>
@@ -15958,7 +16005,7 @@
       </c>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:17" ht="30" customHeight="1">
+    <row r="35" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="13" t="s">
         <v>548</v>
@@ -15992,7 +16039,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="30" customHeight="1">
+    <row r="36" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="13" t="s">
         <v>551</v>
@@ -16026,7 +16073,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="30" customHeight="1">
+    <row r="37" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="13" t="s">
         <v>556</v>
@@ -16066,7 +16113,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="30" customHeight="1">
+    <row r="38" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="13" t="s">
         <v>561</v>
@@ -16100,7 +16147,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="30" customHeight="1">
+    <row r="39" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="13" t="s">
         <v>566</v>
@@ -16134,7 +16181,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="30" customHeight="1">
+    <row r="40" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="13" t="s">
         <v>569</v>
@@ -16168,7 +16215,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="30" customHeight="1">
+    <row r="41" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="13" t="s">
         <v>574</v>
@@ -16202,7 +16249,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="30" customHeight="1">
+    <row r="42" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="13" t="s">
         <v>578</v>
@@ -16238,7 +16285,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="30" customHeight="1">
+    <row r="43" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="13" t="s">
         <v>582</v>
@@ -16269,7 +16316,7 @@
       </c>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:17" ht="30" customHeight="1">
+    <row r="44" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="13" t="s">
         <v>587</v>
@@ -16300,7 +16347,7 @@
       </c>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:17" ht="30" customHeight="1">
+    <row r="45" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="13" t="s">
         <v>590</v>
@@ -16334,7 +16381,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="30" customHeight="1">
+    <row r="46" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="13" t="s">
         <v>593</v>
@@ -16371,7 +16418,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="30" customHeight="1">
+    <row r="47" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="13" t="s">
         <v>597</v>
@@ -16405,7 +16452,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="30" customHeight="1">
+    <row r="48" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="13" t="s">
         <v>600</v>
@@ -16436,7 +16483,7 @@
       </c>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:16" ht="30" customHeight="1">
+    <row r="49" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="13" t="s">
         <v>603</v>
@@ -16467,7 +16514,7 @@
       </c>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:16" ht="30" customHeight="1">
+    <row r="50" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="13" t="s">
         <v>606</v>
@@ -16501,7 +16548,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="30" customHeight="1">
+    <row r="51" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="13" t="s">
         <v>610</v>
@@ -16532,7 +16579,7 @@
       </c>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:16" ht="30" customHeight="1">
+    <row r="52" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="13" t="s">
         <v>614</v>
@@ -16563,7 +16610,7 @@
       </c>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:16" ht="30" customHeight="1">
+    <row r="53" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="13" t="s">
         <v>617</v>
@@ -16594,7 +16641,7 @@
       </c>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:16" ht="30" customHeight="1">
+    <row r="54" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="13" t="s">
         <v>620</v>
@@ -16625,7 +16672,7 @@
       </c>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="1:16" ht="30" customHeight="1">
+    <row r="55" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="13" t="s">
         <v>625</v>
@@ -16656,7 +16703,7 @@
       </c>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:16" ht="30" customHeight="1">
+    <row r="56" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="13" t="s">
         <v>628</v>
@@ -16687,7 +16734,7 @@
       </c>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:16" ht="30" customHeight="1">
+    <row r="57" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="13" t="s">
         <v>631</v>
@@ -16723,7 +16770,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="30" customHeight="1">
+    <row r="58" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="13" t="s">
         <v>634</v>
@@ -16754,7 +16801,7 @@
       </c>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:16" ht="30" customHeight="1">
+    <row r="59" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="13" t="s">
         <v>637</v>
@@ -16785,7 +16832,7 @@
       </c>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:16" ht="30" customHeight="1">
+    <row r="60" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="13" t="s">
         <v>641</v>
@@ -16828,7 +16875,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="30" customHeight="1">
+    <row r="61" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="13" t="s">
         <v>645</v>
@@ -16871,7 +16918,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="30" customHeight="1">
+    <row r="62" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="13" t="s">
         <v>648</v>
@@ -16902,7 +16949,7 @@
       </c>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:16" ht="30" customHeight="1">
+    <row r="63" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="13" t="s">
         <v>651</v>
@@ -16936,7 +16983,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="30" customHeight="1">
+    <row r="64" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="13" t="s">
         <v>654</v>
@@ -16967,7 +17014,7 @@
       </c>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:16" ht="30" customHeight="1">
+    <row r="65" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="13" t="s">
         <v>658</v>
@@ -17001,7 +17048,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="30" customHeight="1">
+    <row r="66" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="13" t="s">
         <v>661</v>
@@ -17038,7 +17085,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="30" customHeight="1">
+    <row r="67" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="13" t="s">
         <v>665</v>
@@ -17072,7 +17119,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="30" customHeight="1">
+    <row r="68" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="13" t="s">
         <v>668</v>
@@ -17103,7 +17150,7 @@
       </c>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:16" ht="30" customHeight="1">
+    <row r="69" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="13" t="s">
         <v>672</v>
@@ -17143,7 +17190,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="30" customHeight="1">
+    <row r="70" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="13" t="s">
         <v>675</v>
@@ -17177,7 +17224,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="30" customHeight="1">
+    <row r="71" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="13" t="s">
         <v>679</v>
@@ -17208,7 +17255,7 @@
       </c>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:16" ht="30" customHeight="1">
+    <row r="72" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="13" t="s">
         <v>682</v>
@@ -17239,7 +17286,7 @@
       </c>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:16" ht="30" customHeight="1">
+    <row r="73" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="13" t="s">
         <v>685</v>
@@ -17270,7 +17317,7 @@
       </c>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:16" ht="30" customHeight="1">
+    <row r="74" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="13" t="s">
         <v>688</v>
@@ -17301,7 +17348,7 @@
       </c>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:16" ht="30" customHeight="1">
+    <row r="75" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="13" t="s">
         <v>694</v>
@@ -17332,7 +17379,7 @@
       </c>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:16" ht="30" customHeight="1">
+    <row r="76" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="13" t="s">
         <v>697</v>
@@ -17375,7 +17422,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="30" customHeight="1">
+    <row r="77" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="13" t="s">
         <v>700</v>
@@ -17406,7 +17453,7 @@
       </c>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:16" ht="30" customHeight="1">
+    <row r="78" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="13" t="s">
         <v>705</v>
@@ -17437,7 +17484,7 @@
       </c>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:16" ht="30" customHeight="1">
+    <row r="79" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="13" t="s">
         <v>708</v>
@@ -17468,7 +17515,7 @@
       </c>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:16" ht="30" customHeight="1">
+    <row r="80" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="13" t="s">
         <v>711</v>
@@ -17505,7 +17552,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="30" customHeight="1">
+    <row r="81" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="13" t="s">
         <v>715</v>
@@ -17539,7 +17586,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="30" customHeight="1">
+    <row r="82" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="13" t="s">
         <v>718</v>
@@ -17576,7 +17623,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="30" customHeight="1">
+    <row r="83" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="13" t="s">
         <v>722</v>
@@ -17607,7 +17654,7 @@
       </c>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:13" ht="30" customHeight="1">
+    <row r="84" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="13" t="s">
         <v>726</v>
@@ -17638,7 +17685,7 @@
       </c>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:13" ht="30" customHeight="1">
+    <row r="85" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="13" t="s">
         <v>729</v>
@@ -17669,7 +17716,7 @@
       </c>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="1:13" ht="30" customHeight="1">
+    <row r="86" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="13" t="s">
         <v>733</v>
@@ -17700,7 +17747,7 @@
       </c>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:13" ht="30" customHeight="1">
+    <row r="87" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="13" t="s">
         <v>738</v>
@@ -17731,7 +17778,7 @@
       </c>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="1:13" ht="30" customHeight="1">
+    <row r="88" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="13" t="s">
         <v>741</v>
@@ -17765,7 +17812,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="30" customHeight="1">
+    <row r="89" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="13" t="s">
         <v>745</v>
@@ -17796,7 +17843,7 @@
       </c>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="1:13" ht="30" customHeight="1">
+    <row r="90" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="13" t="s">
         <v>748</v>
@@ -17830,7 +17877,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="30" customHeight="1">
+    <row r="91" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="13" t="s">
         <v>751</v>
@@ -17861,7 +17908,7 @@
       </c>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="1:13" ht="30" customHeight="1">
+    <row r="92" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="13" t="s">
         <v>755</v>
@@ -17892,7 +17939,7 @@
       </c>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="1:13" ht="30" customHeight="1">
+    <row r="93" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="13" t="s">
         <v>760</v>
@@ -17923,7 +17970,7 @@
       </c>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="1:13" ht="30" customHeight="1">
+    <row r="94" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="13" t="s">
         <v>763</v>
@@ -17954,7 +18001,7 @@
       </c>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="1:13" ht="30" customHeight="1">
+    <row r="95" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="13" t="s">
         <v>766</v>
@@ -17988,7 +18035,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="30" customHeight="1">
+    <row r="96" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="13" t="s">
         <v>769</v>
@@ -18019,7 +18066,7 @@
       </c>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="1:15" ht="30" customHeight="1">
+    <row r="97" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="13" t="s">
         <v>772</v>
@@ -18050,7 +18097,7 @@
       </c>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="1:15" ht="30" customHeight="1">
+    <row r="98" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="13" t="s">
         <v>776</v>
@@ -18090,7 +18137,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="30" customHeight="1">
+    <row r="99" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="13" t="s">
         <v>780</v>
@@ -18121,7 +18168,7 @@
       </c>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="1:15" ht="30" customHeight="1">
+    <row r="100" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="13" t="s">
         <v>784</v>
@@ -18158,7 +18205,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="30" customHeight="1">
+    <row r="101" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="13" t="s">
         <v>787</v>
@@ -18195,7 +18242,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="30" customHeight="1">
+    <row r="102" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="13" t="s">
         <v>790</v>
@@ -18226,7 +18273,7 @@
       </c>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="1:15" ht="30" customHeight="1">
+    <row r="103" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="13" t="s">
         <v>794</v>
@@ -18263,7 +18310,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="30" customHeight="1">
+    <row r="104" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="13" t="s">
         <v>797</v>
@@ -18294,7 +18341,7 @@
       </c>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="1:15" ht="30" customHeight="1">
+    <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="13" t="s">
         <v>800</v>
@@ -18325,7 +18372,7 @@
       </c>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="1:15" ht="30" customHeight="1">
+    <row r="106" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="13" t="s">
         <v>803</v>
@@ -18365,7 +18412,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="30" customHeight="1">
+    <row r="107" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="13" t="s">
         <v>806</v>
@@ -18396,7 +18443,7 @@
       </c>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="1:15" ht="30" customHeight="1">
+    <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="13" t="s">
         <v>809</v>
@@ -18427,7 +18474,7 @@
       </c>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="1:15" ht="30" customHeight="1">
+    <row r="109" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="13" t="s">
         <v>812</v>
@@ -18458,7 +18505,7 @@
       </c>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="1:15" ht="30" customHeight="1">
+    <row r="110" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="13" t="s">
         <v>815</v>
@@ -18492,7 +18539,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="30" customHeight="1">
+    <row r="111" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="13" t="s">
         <v>818</v>
@@ -18523,7 +18570,7 @@
       </c>
       <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="1:15" ht="30" customHeight="1">
+    <row r="112" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="13" t="s">
         <v>821</v>
@@ -18554,7 +18601,7 @@
       </c>
       <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:14" ht="30" customHeight="1">
+    <row r="113" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="13" t="s">
         <v>824</v>
@@ -18588,7 +18635,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="30" customHeight="1">
+    <row r="114" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="13" t="s">
         <v>828</v>
@@ -18619,7 +18666,7 @@
       </c>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:14" ht="30" customHeight="1">
+    <row r="115" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="13" t="s">
         <v>831</v>
@@ -18653,7 +18700,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="30" customHeight="1">
+    <row r="116" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="13" t="s">
         <v>834</v>
@@ -18684,7 +18731,7 @@
       </c>
       <c r="K116" s="8"/>
     </row>
-    <row r="117" spans="1:14" ht="30" customHeight="1">
+    <row r="117" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="13" t="s">
         <v>837</v>
@@ -18715,7 +18762,7 @@
       </c>
       <c r="K117" s="8"/>
     </row>
-    <row r="118" spans="1:14" ht="30" customHeight="1">
+    <row r="118" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="13" t="s">
         <v>840</v>
@@ -18746,7 +18793,7 @@
       </c>
       <c r="K118" s="8"/>
     </row>
-    <row r="119" spans="1:14" ht="30" customHeight="1">
+    <row r="119" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="13" t="s">
         <v>843</v>
@@ -18777,7 +18824,7 @@
       </c>
       <c r="K119" s="8"/>
     </row>
-    <row r="120" spans="1:14" ht="30" customHeight="1">
+    <row r="120" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="13" t="s">
         <v>846</v>
@@ -18811,7 +18858,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="30" customHeight="1">
+    <row r="121" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="13" t="s">
         <v>849</v>
@@ -18842,7 +18889,7 @@
       </c>
       <c r="K121" s="8"/>
     </row>
-    <row r="122" spans="1:14" ht="30" customHeight="1">
+    <row r="122" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="13" t="s">
         <v>852</v>
@@ -18876,7 +18923,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="30" customHeight="1">
+    <row r="123" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="13" t="s">
         <v>855</v>
@@ -18910,7 +18957,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="30" customHeight="1">
+    <row r="124" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="13" t="s">
         <v>858</v>
@@ -18941,7 +18988,7 @@
       </c>
       <c r="K124" s="8"/>
     </row>
-    <row r="125" spans="1:14" ht="30" customHeight="1">
+    <row r="125" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="13" t="s">
         <v>861</v>
@@ -18978,7 +19025,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="30" customHeight="1">
+    <row r="126" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
       <c r="B126" s="13" t="s">
         <v>864</v>
@@ -19009,7 +19056,7 @@
       </c>
       <c r="K126" s="8"/>
     </row>
-    <row r="127" spans="1:14" ht="30" customHeight="1">
+    <row r="127" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
       <c r="B127" s="13" t="s">
         <v>867</v>
@@ -19040,7 +19087,7 @@
       </c>
       <c r="K127" s="8"/>
     </row>
-    <row r="128" spans="1:14" ht="30" customHeight="1">
+    <row r="128" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="13" t="s">
         <v>872</v>
@@ -19074,7 +19121,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="30" customHeight="1">
+    <row r="129" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
       <c r="B129" s="13" t="s">
         <v>875</v>
@@ -19105,7 +19152,7 @@
       </c>
       <c r="K129" s="8"/>
     </row>
-    <row r="130" spans="1:13" ht="30" customHeight="1">
+    <row r="130" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
       <c r="B130" s="13" t="s">
         <v>880</v>
@@ -19136,7 +19183,7 @@
       </c>
       <c r="K130" s="8"/>
     </row>
-    <row r="131" spans="1:13" ht="30" customHeight="1">
+    <row r="131" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8"/>
       <c r="B131" s="13" t="s">
         <v>883</v>
@@ -19170,7 +19217,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="30" customHeight="1">
+    <row r="132" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="13" t="s">
         <v>886</v>
@@ -19204,7 +19251,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="30" customHeight="1">
+    <row r="133" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="13" t="s">
         <v>891</v>
@@ -19235,7 +19282,7 @@
       </c>
       <c r="K133" s="8"/>
     </row>
-    <row r="134" spans="1:13" ht="30" customHeight="1">
+    <row r="134" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="13" t="s">
         <v>895</v>
@@ -19267,7 +19314,7 @@
       <c r="K134" s="8"/>
       <c r="M134" s="34"/>
     </row>
-    <row r="135" spans="1:13" ht="30" customHeight="1">
+    <row r="135" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="13" t="s">
         <v>898</v>
@@ -19301,7 +19348,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="30" customHeight="1">
+    <row r="136" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="13" t="s">
         <v>902</v>
@@ -19332,7 +19379,7 @@
       </c>
       <c r="K136" s="8"/>
     </row>
-    <row r="137" spans="1:13" ht="30" customHeight="1">
+    <row r="137" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="13" t="s">
         <v>905</v>
@@ -19366,7 +19413,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="30" customHeight="1">
+    <row r="138" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="13" t="s">
         <v>908</v>
@@ -19400,7 +19447,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="30" customHeight="1">
+    <row r="139" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="13" t="s">
         <v>911</v>
@@ -19433,7 +19480,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="30" customHeight="1">
+    <row r="140" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="13" t="s">
         <v>914</v>
@@ -19464,7 +19511,7 @@
       </c>
       <c r="K140" s="8"/>
     </row>
-    <row r="141" spans="1:13" ht="30" customHeight="1">
+    <row r="141" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="13" t="s">
         <v>918</v>
@@ -19495,24 +19542,30 @@
       </c>
       <c r="K141" s="8"/>
     </row>
-    <row r="142" spans="1:13" ht="41.1" customHeight="1">
+    <row r="142" spans="1:13" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
-      <c r="B142" s="46" t="s">
+      <c r="B142" s="43" t="s">
         <v>921</v>
       </c>
-      <c r="C142" s="46"/>
-      <c r="D142" s="46"/>
-      <c r="E142" s="46"/>
-      <c r="F142" s="46"/>
-      <c r="G142" s="46"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="46"/>
-      <c r="J142" s="46"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="43"/>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="43"/>
       <c r="K142" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:WVT142"/>
+  <autoFilter ref="A8:WVT142" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="B142:J142"/>
@@ -19522,12 +19575,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
@@ -19537,7 +19584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -19545,14 +19592,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -19569,7 +19616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -19584,7 +19631,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -19599,7 +19646,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -19614,7 +19661,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -19629,7 +19676,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -19644,7 +19691,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -19659,7 +19706,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -19674,7 +19721,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -19689,7 +19736,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -19704,21 +19751,21 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -19732,15 +19779,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
@@ -19750,7 +19798,7 @@
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1114</v>
       </c>
@@ -19761,7 +19809,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1070</v>
       </c>
@@ -19784,7 +19832,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1075</v>
       </c>
@@ -19807,7 +19855,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1084</v>
       </c>
@@ -19827,7 +19875,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1088</v>
       </c>
@@ -19847,7 +19895,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1092</v>
       </c>
@@ -19879,7 +19927,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1264</v>
       </c>
@@ -19901,7 +19949,7 @@
       <c r="G7" s="32"/>
       <c r="I7" s="32"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1092</v>
       </c>
@@ -19921,7 +19969,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1104</v>
       </c>
@@ -19941,7 +19989,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1107</v>
       </c>
@@ -19964,7 +20012,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1124</v>
       </c>
@@ -19990,7 +20038,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1128</v>
       </c>
@@ -20010,7 +20058,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1122</v>
       </c>
@@ -20030,7 +20078,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1133</v>
       </c>
@@ -20056,7 +20104,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1138</v>
       </c>
@@ -20076,7 +20124,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1092</v>
       </c>
@@ -20096,7 +20144,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1143</v>
       </c>
@@ -20116,7 +20164,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>407</v>
       </c>
@@ -20136,7 +20184,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1092</v>
       </c>
@@ -20156,7 +20204,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1150</v>
       </c>
@@ -20176,7 +20224,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1128</v>
       </c>
@@ -20199,7 +20247,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1070</v>
       </c>
@@ -20225,7 +20273,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1178</v>
       </c>
@@ -20248,7 +20296,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1092</v>
       </c>
@@ -20268,7 +20316,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1191</v>
       </c>
@@ -20291,7 +20339,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1214</v>
       </c>
@@ -20311,7 +20359,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1214</v>
       </c>
@@ -20334,7 +20382,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1229</v>
       </c>
@@ -20357,7 +20405,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1233</v>
       </c>
@@ -20380,7 +20428,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1092</v>
       </c>
@@ -20406,7 +20454,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1245</v>
       </c>
@@ -20429,7 +20477,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1249</v>
       </c>
@@ -20452,7 +20500,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1249</v>
       </c>
@@ -20472,7 +20520,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1287</v>
       </c>
@@ -20492,7 +20540,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1296</v>
       </c>
@@ -20512,7 +20560,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1287</v>
       </c>
@@ -20532,7 +20580,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1310</v>
       </c>
@@ -20555,32 +20603,48 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="C38" s="32"/>
-      <c r="E38" s="32"/>
-    </row>
-    <row r="39" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C38" s="32">
+        <v>45472</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E38" s="32">
+        <v>45474</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="32"/>
       <c r="E39" s="32"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C40" s="32"/>
       <c r="E40" s="32"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="32"/>
       <c r="E41" s="32"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C42" s="32"/>
       <c r="E42" s="32"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1117</v>
       </c>
@@ -20594,7 +20658,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1212</v>
       </c>
@@ -20608,7 +20672,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1283</v>
       </c>
@@ -20625,7 +20689,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1295</v>
       </c>
@@ -20642,7 +20706,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="53" spans="5:5">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
         <v>1140</v>
       </c>

--- a/아버지_부조금.xlsx
+++ b/아버지_부조금.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Programming\01_ProgrammingPractice\Angular\ChangwonLife\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CE5965-4987-47DF-9D12-3057754351E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80F1027-FE7F-4146-885A-7A25EF603BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="장례식장받은것" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'입출금거래내역(정현숙)'!$A$8:$WVT$142</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">장례식장받은것!$A$3:$E$251</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="1319">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8636,6 +8636,38 @@
   <si>
     <t>모친별세</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2024-07-05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">조모별세 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2024-07-10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에 5만원부의</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8973,11 +9005,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8987,15 +9028,6 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14372,8 +14404,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="B112" workbookViewId="0">
+      <selection activeCell="M121" sqref="M121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15024,127 +15056,127 @@
   <sheetData>
     <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="48">
         <v>6490000</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="43" t="s">
         <v>432</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18858,7 +18890,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
       <c r="B121" s="13" t="s">
         <v>849</v>
@@ -18888,6 +18920,9 @@
         <v>444</v>
       </c>
       <c r="K121" s="8"/>
+      <c r="M121" s="9" t="s">
+        <v>1318</v>
+      </c>
     </row>
     <row r="122" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
@@ -19544,28 +19579,22 @@
     </row>
     <row r="142" spans="1:13" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
-      <c r="B142" s="43" t="s">
+      <c r="B142" s="46" t="s">
         <v>921</v>
       </c>
-      <c r="C142" s="43"/>
-      <c r="D142" s="43"/>
-      <c r="E142" s="43"/>
-      <c r="F142" s="43"/>
-      <c r="G142" s="43"/>
-      <c r="H142" s="43"/>
-      <c r="I142" s="43"/>
-      <c r="J142" s="43"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="46"/>
+      <c r="H142" s="46"/>
+      <c r="I142" s="46"/>
+      <c r="J142" s="46"/>
       <c r="K142" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:WVT142" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:J4"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="B142:J142"/>
@@ -19575,6 +19604,12 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
@@ -19783,9 +19818,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/아버지_부조금.xlsx
+++ b/아버지_부조금.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20413"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Programming\01_ProgrammingPractice\Angular\ChangwonLife\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80F1027-FE7F-4146-885A-7A25EF603BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F615EF7F-DC46-488F-BEBE-03A8DBAE8B9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8678,7 +8678,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0&quot;원&quot;"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9005,20 +9005,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9028,6 +9019,15 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9377,7 +9377,7 @@
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="6" customWidth="1"/>
@@ -9388,7 +9388,7 @@
     <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="5" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -10022,7 +10022,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -10384,7 +10384,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -10482,7 +10482,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -10514,7 +10514,7 @@
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>69</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>70</v>
       </c>
@@ -10578,7 +10578,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>71</v>
       </c>
@@ -10593,7 +10593,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>72</v>
       </c>
@@ -10606,7 +10606,7 @@
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>73</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>74</v>
       </c>
@@ -10636,7 +10636,7 @@
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>75</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>76</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>77</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>78</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>79</v>
       </c>
@@ -10719,7 +10719,7 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>80</v>
       </c>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>81</v>
       </c>
@@ -10749,7 +10749,7 @@
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85" s="24">
         <v>82</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>83</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87" s="1">
         <v>84</v>
       </c>
@@ -10796,7 +10796,7 @@
       </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>85</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>86</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>87</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>88</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>89</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>90</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>91</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>92</v>
       </c>
@@ -10928,7 +10928,7 @@
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>93</v>
       </c>
@@ -10941,7 +10941,7 @@
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
         <v>94</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>95</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" s="1">
         <v>96</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>97</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
         <v>98</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102" s="1">
         <v>99</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" s="1">
         <v>100</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="A104" s="1">
         <v>101</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" s="1">
         <v>102</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" s="1">
         <v>103</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" s="1">
         <v>104</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9">
       <c r="A108" s="1">
         <v>105</v>
       </c>
@@ -11158,7 +11158,7 @@
       </c>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" s="1">
         <v>106</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="A110" s="1">
         <v>107</v>
       </c>
@@ -11190,7 +11190,7 @@
       </c>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" s="1">
         <v>108</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>109</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>110</v>
       </c>
@@ -11242,7 +11242,7 @@
       </c>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>111</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>112</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>113</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>114</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>115</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>116</v>
       </c>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>117</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>118</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>119</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>120</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>121</v>
       </c>
@@ -11429,7 +11429,7 @@
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>122</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>123</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>124</v>
       </c>
@@ -11478,7 +11478,7 @@
       </c>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>125</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>126</v>
       </c>
@@ -11510,7 +11510,7 @@
       </c>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>127</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>128</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>129</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>130</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>131</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>132</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>133</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>134</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>135</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>136</v>
       </c>
@@ -11678,7 +11678,7 @@
       </c>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>137</v>
       </c>
@@ -11693,7 +11693,7 @@
       </c>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>138</v>
       </c>
@@ -11708,7 +11708,7 @@
       </c>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>139</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>140</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>141</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>142</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5">
       <c r="A146" s="1">
         <v>143</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5">
       <c r="A147" s="1">
         <v>144</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>145</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5">
       <c r="A149" s="1">
         <v>146</v>
       </c>
@@ -11848,7 +11848,7 @@
       </c>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5">
       <c r="A150" s="1">
         <v>147</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5">
       <c r="A151" s="1">
         <v>148</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5">
       <c r="A152" s="1">
         <v>149</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5">
       <c r="A153" s="1">
         <v>150</v>
       </c>
@@ -11914,7 +11914,7 @@
       </c>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5">
       <c r="A154" s="1">
         <v>151</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5">
       <c r="A155" s="1">
         <v>152</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5">
       <c r="A156" s="1">
         <v>153</v>
       </c>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5">
       <c r="A157" s="1">
         <v>154</v>
       </c>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5">
       <c r="A158" s="1">
         <v>155</v>
       </c>
@@ -11993,7 +11993,7 @@
       </c>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5">
       <c r="A159" s="1">
         <v>156</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5">
       <c r="A160" s="1">
         <v>157</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5">
       <c r="A161" s="1">
         <v>158</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5">
       <c r="A162" s="1">
         <v>159</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5">
       <c r="A163" s="1">
         <v>160</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5">
       <c r="A164" s="1">
         <v>161</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5">
       <c r="A165" s="1">
         <v>162</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5">
       <c r="A166" s="1">
         <v>163</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5">
       <c r="A167" s="1">
         <v>164</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5">
       <c r="A168" s="1">
         <v>165</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5">
       <c r="A169" s="1">
         <v>166</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5">
       <c r="A170" s="1">
         <v>167</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5">
       <c r="A171" s="1">
         <v>168</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5">
       <c r="A172" s="1">
         <v>169</v>
       </c>
@@ -12227,7 +12227,7 @@
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5">
       <c r="A173" s="1">
         <v>170</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5">
       <c r="A174" s="1">
         <v>171</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5">
       <c r="A175" s="1">
         <v>172</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5">
       <c r="A176" s="1">
         <v>173</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5">
       <c r="A177" s="1">
         <v>174</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5">
       <c r="A178" s="1">
         <v>175</v>
       </c>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5">
       <c r="A179" s="1">
         <v>176</v>
       </c>
@@ -12342,7 +12342,7 @@
       </c>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5">
       <c r="A180" s="1">
         <v>177</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5">
       <c r="A181" s="1">
         <v>178</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5">
       <c r="A182" s="1">
         <v>179</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5">
       <c r="A183" s="1">
         <v>180</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5">
       <c r="A184" s="1">
         <v>181</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5">
       <c r="A185" s="1">
         <v>182</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5">
       <c r="A186" s="1">
         <v>183</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5">
       <c r="A187" s="1">
         <v>184</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5">
       <c r="A188" s="1">
         <v>185</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5">
       <c r="A189" s="1">
         <v>186</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5">
       <c r="A190" s="1">
         <v>187</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5">
       <c r="A191" s="1">
         <v>188</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5">
       <c r="A192" s="1">
         <v>189</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <v>190</v>
       </c>
@@ -12576,7 +12576,7 @@
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <v>191</v>
       </c>
@@ -12589,7 +12589,7 @@
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <v>192</v>
       </c>
@@ -12602,7 +12602,7 @@
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <v>193</v>
       </c>
@@ -12617,7 +12617,7 @@
       </c>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <v>194</v>
       </c>
@@ -12632,7 +12632,7 @@
       </c>
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <v>195</v>
       </c>
@@ -12647,7 +12647,7 @@
       </c>
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <v>196</v>
       </c>
@@ -12662,7 +12662,7 @@
       </c>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <v>197</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <v>198</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6">
       <c r="A202" s="1">
         <v>199</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6">
       <c r="A203" s="1">
         <v>200</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6">
       <c r="A204" s="1">
         <v>201</v>
       </c>
@@ -12744,7 +12744,7 @@
       </c>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>202</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6">
       <c r="A206" s="1">
         <v>203</v>
       </c>
@@ -12776,7 +12776,7 @@
       </c>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6">
       <c r="A207" s="1">
         <v>204</v>
       </c>
@@ -12791,7 +12791,7 @@
       </c>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6">
       <c r="A208" s="1">
         <v>205</v>
       </c>
@@ -12806,7 +12806,7 @@
       </c>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5">
       <c r="A209" s="1">
         <v>206</v>
       </c>
@@ -12821,7 +12821,7 @@
       </c>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5">
       <c r="A210" s="1">
         <v>207</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5">
       <c r="A211" s="1">
         <v>208</v>
       </c>
@@ -12853,7 +12853,7 @@
       </c>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5">
       <c r="A212" s="1">
         <v>209</v>
       </c>
@@ -12868,7 +12868,7 @@
       </c>
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5">
       <c r="A213" s="1">
         <v>210</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5">
       <c r="A214" s="1">
         <v>211</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5">
       <c r="A215" s="1">
         <v>212</v>
       </c>
@@ -12917,7 +12917,7 @@
       </c>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5">
       <c r="A216" s="1">
         <v>213</v>
       </c>
@@ -12932,7 +12932,7 @@
       </c>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5">
       <c r="A217" s="1">
         <v>214</v>
       </c>
@@ -12947,7 +12947,7 @@
       </c>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5">
       <c r="A218" s="1">
         <v>215</v>
       </c>
@@ -12962,7 +12962,7 @@
       </c>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5">
       <c r="A219" s="1">
         <v>216</v>
       </c>
@@ -12977,7 +12977,7 @@
       </c>
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5">
       <c r="A220" s="1">
         <v>217</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5">
       <c r="A221" s="1">
         <v>218</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5">
       <c r="A222" s="1">
         <v>219</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5">
       <c r="A223" s="1">
         <v>220</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5">
       <c r="A224" s="1">
         <v>221</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5">
       <c r="A225" s="1">
         <v>222</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5">
       <c r="A226" s="1">
         <v>223</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5">
       <c r="A227" s="1">
         <v>224</v>
       </c>
@@ -13107,7 +13107,7 @@
       </c>
       <c r="E227" s="2"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5">
       <c r="A228" s="1">
         <v>225</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5">
       <c r="A229" s="1">
         <v>226</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5">
       <c r="A230" s="1">
         <v>227</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5">
       <c r="A231" s="1">
         <v>228</v>
       </c>
@@ -13173,7 +13173,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5">
       <c r="A232" s="1">
         <v>229</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5">
       <c r="A233" s="1">
         <v>230</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5">
       <c r="A234" s="1">
         <v>231</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5">
       <c r="A235" s="1">
         <v>232</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5">
       <c r="A236" s="1">
         <v>233</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5">
       <c r="A237" s="1">
         <v>234</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5">
       <c r="A238" s="1">
         <v>235</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5">
       <c r="A239" s="1">
         <v>236</v>
       </c>
@@ -13309,7 +13309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5">
       <c r="A240" s="1">
         <v>237</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5">
       <c r="A241" s="1">
         <v>238</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5">
       <c r="A242" s="1">
         <v>239</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5">
       <c r="A243" s="1">
         <v>240</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5">
       <c r="A244" s="1">
         <v>241</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5">
       <c r="A245" s="1">
         <v>242</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5">
       <c r="A246" s="1">
         <v>243</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5">
       <c r="A247" s="1">
         <v>244</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5">
       <c r="A248" s="1">
         <v>245</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5">
       <c r="A249" s="1">
         <v>246</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5">
       <c r="A250" s="1">
         <v>247</v>
       </c>
@@ -13492,7 +13492,7 @@
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5">
       <c r="A251" s="1">
         <v>248</v>
       </c>
@@ -13526,17 +13526,17 @@
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -13601,7 +13601,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -13652,7 +13652,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -13667,7 +13667,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -13682,7 +13682,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -13697,7 +13697,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -13712,7 +13712,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -13726,20 +13726,20 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>936</v>
       </c>
@@ -13747,12 +13747,12 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="B21" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="B22" t="s">
         <v>1039</v>
       </c>
@@ -13760,22 +13760,22 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="B23" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="B24" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="B25" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="b">
         <v>0</v>
       </c>
@@ -13789,12 +13789,12 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="B27" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="b">
         <v>1</v>
       </c>
@@ -13805,58 +13805,58 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="B29" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="B30" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="B31" s="21" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="B32" s="21" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="B33" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="B34" t="s">
         <v>939</v>
       </c>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="B35" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="B36" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="B37" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="B38" s="21" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="B39" t="s">
         <v>985</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="B40" t="s">
         <v>990</v>
       </c>
@@ -13872,22 +13872,22 @@
         <v>958</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="B41" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="B42" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="B43" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>1175</v>
       </c>
@@ -13898,17 +13898,17 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="B45" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="B46" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="B47" t="s">
         <v>1169</v>
       </c>
@@ -13916,77 +13916,77 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="B48" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3">
       <c r="B49" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3">
       <c r="B50" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3">
       <c r="B51" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3">
       <c r="B52" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3">
       <c r="B53" s="21" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3">
       <c r="B54" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3">
       <c r="B55" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3">
       <c r="B56" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3">
       <c r="B57" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3">
       <c r="B58" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3">
       <c r="B59" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3">
       <c r="B60" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3">
       <c r="B61" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3">
       <c r="B62" t="s">
         <v>944</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3">
       <c r="B63" t="s">
         <v>945</v>
       </c>
@@ -14002,22 +14002,22 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3">
       <c r="B64" s="21" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4">
       <c r="B65" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4">
       <c r="B66" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4">
       <c r="B67" t="s">
         <v>949</v>
       </c>
@@ -14025,42 +14025,42 @@
         <v>951</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4">
       <c r="B68" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4">
       <c r="B69" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4">
       <c r="B70" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4">
       <c r="B71" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4">
       <c r="B72" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4">
       <c r="B73" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4">
       <c r="B74" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4">
       <c r="B75" t="s">
         <v>1050</v>
       </c>
@@ -14068,12 +14068,12 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4">
       <c r="B76" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4">
       <c r="B77" t="s">
         <v>964</v>
       </c>
@@ -14081,37 +14081,37 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4">
       <c r="B78" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4">
       <c r="B79" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4">
       <c r="B80" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4">
       <c r="B81" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4">
       <c r="B82" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4">
       <c r="B83" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4">
       <c r="B84" s="40" t="s">
         <v>975</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4">
       <c r="B85" s="40" t="s">
         <v>1278</v>
       </c>
@@ -14133,17 +14133,17 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4">
       <c r="B86" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4">
       <c r="B87" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4">
       <c r="B88" s="21" t="s">
         <v>978</v>
       </c>
@@ -14151,53 +14151,53 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4">
       <c r="B89" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4">
       <c r="B90" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4">
       <c r="B91" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4">
       <c r="B92" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4">
       <c r="B93" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4">
       <c r="B94" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4">
       <c r="B95" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4">
       <c r="B96" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="B97" t="s">
         <v>1010</v>
       </c>
       <c r="C97" s="19"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="B98" t="s">
         <v>1011</v>
       </c>
@@ -14205,25 +14205,25 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="B99" t="s">
         <v>1014</v>
       </c>
       <c r="C99" s="19"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="B100" t="s">
         <v>1013</v>
       </c>
       <c r="C100" s="19"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="B101" t="s">
         <v>1015</v>
       </c>
       <c r="C101" s="19"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>979</v>
       </c>
@@ -14231,32 +14231,32 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="B103" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="B105" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="B106" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="B107" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="B108" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="B109" t="s">
         <v>1024</v>
       </c>
@@ -14270,17 +14270,17 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="B110" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="B111" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="B112" t="s">
         <v>1030</v>
       </c>
@@ -14291,37 +14291,37 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="B113" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="B114" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="B115" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="B116" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="B117" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3">
       <c r="B118" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="B119" t="s">
         <v>983</v>
       </c>
@@ -14329,12 +14329,12 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="B120" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="B121" t="s">
         <v>1076</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" t="b">
         <v>0</v>
       </c>
@@ -14353,12 +14353,12 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="B123" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3">
       <c r="B124" t="s">
         <v>1280</v>
       </c>
@@ -14366,7 +14366,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="B126" t="s">
         <v>1036</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" t="b">
         <v>0</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:3">
       <c r="B129" t="s">
         <v>1262</v>
       </c>
@@ -14404,11 +14404,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B112" workbookViewId="0">
-      <selection activeCell="M121" sqref="M121"/>
+    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.75" style="9" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="9" customWidth="1"/>
@@ -15054,132 +15054,132 @@
     <col min="16141" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="48" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="18.95" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="45">
         <v>6490000</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="14.1" customHeight="1" thickBot="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="43" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="12" t="s">
         <v>433</v>
@@ -15210,7 +15210,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="30" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="13" t="s">
         <v>442</v>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="30" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="13" t="s">
         <v>449</v>
@@ -15272,7 +15272,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="30" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="13" t="s">
         <v>454</v>
@@ -15303,7 +15303,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="30" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="13" t="s">
         <v>458</v>
@@ -15334,7 +15334,7 @@
       </c>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="30" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="13" t="s">
         <v>463</v>
@@ -15365,7 +15365,7 @@
       </c>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="30" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="13" t="s">
         <v>466</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="30" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="13" t="s">
         <v>470</v>
@@ -15430,7 +15430,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="30" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="13" t="s">
         <v>475</v>
@@ -15461,7 +15461,7 @@
       </c>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="30" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="13" t="s">
         <v>481</v>
@@ -15492,7 +15492,7 @@
       </c>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="30" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="13" t="s">
         <v>485</v>
@@ -15523,7 +15523,7 @@
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="30" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="13" t="s">
         <v>489</v>
@@ -15554,7 +15554,7 @@
       </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="30" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="13" t="s">
         <v>493</v>
@@ -15591,7 +15591,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="30" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="13" t="s">
         <v>496</v>
@@ -15622,7 +15622,7 @@
       </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="30" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="13" t="s">
         <v>499</v>
@@ -15653,7 +15653,7 @@
       </c>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="30" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="13" t="s">
         <v>502</v>
@@ -15687,7 +15687,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="30" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="13" t="s">
         <v>505</v>
@@ -15718,7 +15718,7 @@
       </c>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="30" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="13" t="s">
         <v>508</v>
@@ -15752,7 +15752,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="30" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="13" t="s">
         <v>511</v>
@@ -15783,7 +15783,7 @@
       </c>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="30" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="13" t="s">
         <v>516</v>
@@ -15817,7 +15817,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="30" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="13" t="s">
         <v>520</v>
@@ -15851,7 +15851,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="30" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="13" t="s">
         <v>524</v>
@@ -15882,7 +15882,7 @@
       </c>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="30" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="13" t="s">
         <v>528</v>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="30" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="13" t="s">
         <v>532</v>
@@ -15944,7 +15944,7 @@
       </c>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="30" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="13" t="s">
         <v>535</v>
@@ -15975,7 +15975,7 @@
       </c>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="13" t="s">
         <v>540</v>
@@ -16006,7 +16006,7 @@
       </c>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="30" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="13" t="s">
         <v>544</v>
@@ -16037,7 +16037,7 @@
       </c>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="30" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="13" t="s">
         <v>548</v>
@@ -16071,7 +16071,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="30" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="13" t="s">
         <v>551</v>
@@ -16105,7 +16105,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="30" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="13" t="s">
         <v>556</v>
@@ -16145,7 +16145,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="30" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="13" t="s">
         <v>561</v>
@@ -16179,7 +16179,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="13" t="s">
         <v>566</v>
@@ -16213,7 +16213,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="30" customHeight="1">
       <c r="A40" s="8"/>
       <c r="B40" s="13" t="s">
         <v>569</v>
@@ -16247,7 +16247,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="30" customHeight="1">
       <c r="A41" s="8"/>
       <c r="B41" s="13" t="s">
         <v>574</v>
@@ -16281,7 +16281,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="30" customHeight="1">
       <c r="A42" s="8"/>
       <c r="B42" s="13" t="s">
         <v>578</v>
@@ -16317,7 +16317,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="30" customHeight="1">
       <c r="A43" s="8"/>
       <c r="B43" s="13" t="s">
         <v>582</v>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="30" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="13" t="s">
         <v>587</v>
@@ -16379,7 +16379,7 @@
       </c>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="30" customHeight="1">
       <c r="A45" s="8"/>
       <c r="B45" s="13" t="s">
         <v>590</v>
@@ -16413,7 +16413,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="30" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="13" t="s">
         <v>593</v>
@@ -16450,7 +16450,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="30" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="13" t="s">
         <v>597</v>
@@ -16484,7 +16484,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="30" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="13" t="s">
         <v>600</v>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="30" customHeight="1">
       <c r="A49" s="8"/>
       <c r="B49" s="13" t="s">
         <v>603</v>
@@ -16546,7 +16546,7 @@
       </c>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="30" customHeight="1">
       <c r="A50" s="8"/>
       <c r="B50" s="13" t="s">
         <v>606</v>
@@ -16580,7 +16580,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="30" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="13" t="s">
         <v>610</v>
@@ -16611,7 +16611,7 @@
       </c>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="30" customHeight="1">
       <c r="A52" s="8"/>
       <c r="B52" s="13" t="s">
         <v>614</v>
@@ -16642,7 +16642,7 @@
       </c>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="30" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="13" t="s">
         <v>617</v>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="30" customHeight="1">
       <c r="A54" s="8"/>
       <c r="B54" s="13" t="s">
         <v>620</v>
@@ -16704,7 +16704,7 @@
       </c>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="30" customHeight="1">
       <c r="A55" s="8"/>
       <c r="B55" s="13" t="s">
         <v>625</v>
@@ -16735,7 +16735,7 @@
       </c>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="30" customHeight="1">
       <c r="A56" s="8"/>
       <c r="B56" s="13" t="s">
         <v>628</v>
@@ -16766,7 +16766,7 @@
       </c>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="30" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="13" t="s">
         <v>631</v>
@@ -16802,7 +16802,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="30" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="13" t="s">
         <v>634</v>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="30" customHeight="1">
       <c r="A59" s="8"/>
       <c r="B59" s="13" t="s">
         <v>637</v>
@@ -16864,7 +16864,7 @@
       </c>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="30" customHeight="1">
       <c r="A60" s="8"/>
       <c r="B60" s="13" t="s">
         <v>641</v>
@@ -16907,7 +16907,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="30" customHeight="1">
       <c r="A61" s="8"/>
       <c r="B61" s="13" t="s">
         <v>645</v>
@@ -16950,7 +16950,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="30" customHeight="1">
       <c r="A62" s="8"/>
       <c r="B62" s="13" t="s">
         <v>648</v>
@@ -16981,7 +16981,7 @@
       </c>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="30" customHeight="1">
       <c r="A63" s="8"/>
       <c r="B63" s="13" t="s">
         <v>651</v>
@@ -17015,7 +17015,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="30" customHeight="1">
       <c r="A64" s="8"/>
       <c r="B64" s="13" t="s">
         <v>654</v>
@@ -17046,7 +17046,7 @@
       </c>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="30" customHeight="1">
       <c r="A65" s="8"/>
       <c r="B65" s="13" t="s">
         <v>658</v>
@@ -17080,7 +17080,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="30" customHeight="1">
       <c r="A66" s="8"/>
       <c r="B66" s="13" t="s">
         <v>661</v>
@@ -17117,7 +17117,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="30" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="13" t="s">
         <v>665</v>
@@ -17151,7 +17151,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="30" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="13" t="s">
         <v>668</v>
@@ -17182,7 +17182,7 @@
       </c>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="30" customHeight="1">
       <c r="A69" s="8"/>
       <c r="B69" s="13" t="s">
         <v>672</v>
@@ -17222,7 +17222,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="30" customHeight="1">
       <c r="A70" s="8"/>
       <c r="B70" s="13" t="s">
         <v>675</v>
@@ -17256,7 +17256,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="30" customHeight="1">
       <c r="A71" s="8"/>
       <c r="B71" s="13" t="s">
         <v>679</v>
@@ -17287,7 +17287,7 @@
       </c>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="30" customHeight="1">
       <c r="A72" s="8"/>
       <c r="B72" s="13" t="s">
         <v>682</v>
@@ -17318,7 +17318,7 @@
       </c>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="30" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="13" t="s">
         <v>685</v>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="30" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="13" t="s">
         <v>688</v>
@@ -17380,7 +17380,7 @@
       </c>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="30" customHeight="1">
       <c r="A75" s="8"/>
       <c r="B75" s="13" t="s">
         <v>694</v>
@@ -17411,7 +17411,7 @@
       </c>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="30" customHeight="1">
       <c r="A76" s="8"/>
       <c r="B76" s="13" t="s">
         <v>697</v>
@@ -17454,7 +17454,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" ht="30" customHeight="1">
       <c r="A77" s="8"/>
       <c r="B77" s="13" t="s">
         <v>700</v>
@@ -17485,7 +17485,7 @@
       </c>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="30" customHeight="1">
       <c r="A78" s="8"/>
       <c r="B78" s="13" t="s">
         <v>705</v>
@@ -17516,7 +17516,7 @@
       </c>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="30" customHeight="1">
       <c r="A79" s="8"/>
       <c r="B79" s="13" t="s">
         <v>708</v>
@@ -17547,7 +17547,7 @@
       </c>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="30" customHeight="1">
       <c r="A80" s="8"/>
       <c r="B80" s="13" t="s">
         <v>711</v>
@@ -17584,7 +17584,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="30" customHeight="1">
       <c r="A81" s="8"/>
       <c r="B81" s="13" t="s">
         <v>715</v>
@@ -17618,7 +17618,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="30" customHeight="1">
       <c r="A82" s="8"/>
       <c r="B82" s="13" t="s">
         <v>718</v>
@@ -17655,7 +17655,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="30" customHeight="1">
       <c r="A83" s="8"/>
       <c r="B83" s="13" t="s">
         <v>722</v>
@@ -17686,7 +17686,7 @@
       </c>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="30" customHeight="1">
       <c r="A84" s="8"/>
       <c r="B84" s="13" t="s">
         <v>726</v>
@@ -17717,7 +17717,7 @@
       </c>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="30" customHeight="1">
       <c r="A85" s="8"/>
       <c r="B85" s="13" t="s">
         <v>729</v>
@@ -17748,7 +17748,7 @@
       </c>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="30" customHeight="1">
       <c r="A86" s="8"/>
       <c r="B86" s="13" t="s">
         <v>733</v>
@@ -17779,7 +17779,7 @@
       </c>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="30" customHeight="1">
       <c r="A87" s="8"/>
       <c r="B87" s="13" t="s">
         <v>738</v>
@@ -17810,7 +17810,7 @@
       </c>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="30" customHeight="1">
       <c r="A88" s="8"/>
       <c r="B88" s="13" t="s">
         <v>741</v>
@@ -17844,7 +17844,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="30" customHeight="1">
       <c r="A89" s="8"/>
       <c r="B89" s="13" t="s">
         <v>745</v>
@@ -17875,7 +17875,7 @@
       </c>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="30" customHeight="1">
       <c r="A90" s="8"/>
       <c r="B90" s="13" t="s">
         <v>748</v>
@@ -17909,7 +17909,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="30" customHeight="1">
       <c r="A91" s="8"/>
       <c r="B91" s="13" t="s">
         <v>751</v>
@@ -17940,7 +17940,7 @@
       </c>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="30" customHeight="1">
       <c r="A92" s="8"/>
       <c r="B92" s="13" t="s">
         <v>755</v>
@@ -17971,7 +17971,7 @@
       </c>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="30" customHeight="1">
       <c r="A93" s="8"/>
       <c r="B93" s="13" t="s">
         <v>760</v>
@@ -18002,7 +18002,7 @@
       </c>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="30" customHeight="1">
       <c r="A94" s="8"/>
       <c r="B94" s="13" t="s">
         <v>763</v>
@@ -18033,7 +18033,7 @@
       </c>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="30" customHeight="1">
       <c r="A95" s="8"/>
       <c r="B95" s="13" t="s">
         <v>766</v>
@@ -18067,7 +18067,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="30" customHeight="1">
       <c r="A96" s="8"/>
       <c r="B96" s="13" t="s">
         <v>769</v>
@@ -18098,7 +18098,7 @@
       </c>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="30" customHeight="1">
       <c r="A97" s="8"/>
       <c r="B97" s="13" t="s">
         <v>772</v>
@@ -18129,7 +18129,7 @@
       </c>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="30" customHeight="1">
       <c r="A98" s="8"/>
       <c r="B98" s="13" t="s">
         <v>776</v>
@@ -18169,7 +18169,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="30" customHeight="1">
       <c r="A99" s="8"/>
       <c r="B99" s="13" t="s">
         <v>780</v>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="30" customHeight="1">
       <c r="A100" s="8"/>
       <c r="B100" s="13" t="s">
         <v>784</v>
@@ -18237,7 +18237,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="30" customHeight="1">
       <c r="A101" s="8"/>
       <c r="B101" s="13" t="s">
         <v>787</v>
@@ -18274,7 +18274,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="30" customHeight="1">
       <c r="A102" s="8"/>
       <c r="B102" s="13" t="s">
         <v>790</v>
@@ -18305,7 +18305,7 @@
       </c>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="30" customHeight="1">
       <c r="A103" s="8"/>
       <c r="B103" s="13" t="s">
         <v>794</v>
@@ -18342,7 +18342,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="30" customHeight="1">
       <c r="A104" s="8"/>
       <c r="B104" s="13" t="s">
         <v>797</v>
@@ -18373,7 +18373,7 @@
       </c>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="30" customHeight="1">
       <c r="A105" s="8"/>
       <c r="B105" s="13" t="s">
         <v>800</v>
@@ -18404,7 +18404,7 @@
       </c>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="30" customHeight="1">
       <c r="A106" s="8"/>
       <c r="B106" s="13" t="s">
         <v>803</v>
@@ -18444,7 +18444,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="30" customHeight="1">
       <c r="A107" s="8"/>
       <c r="B107" s="13" t="s">
         <v>806</v>
@@ -18475,7 +18475,7 @@
       </c>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="30" customHeight="1">
       <c r="A108" s="8"/>
       <c r="B108" s="13" t="s">
         <v>809</v>
@@ -18506,7 +18506,7 @@
       </c>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="30" customHeight="1">
       <c r="A109" s="8"/>
       <c r="B109" s="13" t="s">
         <v>812</v>
@@ -18537,7 +18537,7 @@
       </c>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="30" customHeight="1">
       <c r="A110" s="8"/>
       <c r="B110" s="13" t="s">
         <v>815</v>
@@ -18571,7 +18571,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="30" customHeight="1">
       <c r="A111" s="8"/>
       <c r="B111" s="13" t="s">
         <v>818</v>
@@ -18602,7 +18602,7 @@
       </c>
       <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="30" customHeight="1">
       <c r="A112" s="8"/>
       <c r="B112" s="13" t="s">
         <v>821</v>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="30" customHeight="1">
       <c r="A113" s="8"/>
       <c r="B113" s="13" t="s">
         <v>824</v>
@@ -18667,7 +18667,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="30" customHeight="1">
       <c r="A114" s="8"/>
       <c r="B114" s="13" t="s">
         <v>828</v>
@@ -18698,7 +18698,7 @@
       </c>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="30" customHeight="1">
       <c r="A115" s="8"/>
       <c r="B115" s="13" t="s">
         <v>831</v>
@@ -18732,7 +18732,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="30" customHeight="1">
       <c r="A116" s="8"/>
       <c r="B116" s="13" t="s">
         <v>834</v>
@@ -18763,7 +18763,7 @@
       </c>
       <c r="K116" s="8"/>
     </row>
-    <row r="117" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" ht="30" customHeight="1">
       <c r="A117" s="8"/>
       <c r="B117" s="13" t="s">
         <v>837</v>
@@ -18794,7 +18794,7 @@
       </c>
       <c r="K117" s="8"/>
     </row>
-    <row r="118" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="30" customHeight="1">
       <c r="A118" s="8"/>
       <c r="B118" s="13" t="s">
         <v>840</v>
@@ -18825,7 +18825,7 @@
       </c>
       <c r="K118" s="8"/>
     </row>
-    <row r="119" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="30" customHeight="1">
       <c r="A119" s="8"/>
       <c r="B119" s="13" t="s">
         <v>843</v>
@@ -18856,7 +18856,7 @@
       </c>
       <c r="K119" s="8"/>
     </row>
-    <row r="120" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="30" customHeight="1">
       <c r="A120" s="8"/>
       <c r="B120" s="13" t="s">
         <v>846</v>
@@ -18890,7 +18890,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="30" customHeight="1">
       <c r="A121" s="8"/>
       <c r="B121" s="13" t="s">
         <v>849</v>
@@ -18924,7 +18924,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" ht="30" customHeight="1">
       <c r="A122" s="8"/>
       <c r="B122" s="13" t="s">
         <v>852</v>
@@ -18958,7 +18958,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" ht="30" customHeight="1">
       <c r="A123" s="8"/>
       <c r="B123" s="13" t="s">
         <v>855</v>
@@ -18992,7 +18992,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="30" customHeight="1">
       <c r="A124" s="8"/>
       <c r="B124" s="13" t="s">
         <v>858</v>
@@ -19023,7 +19023,7 @@
       </c>
       <c r="K124" s="8"/>
     </row>
-    <row r="125" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" ht="30" customHeight="1">
       <c r="A125" s="8"/>
       <c r="B125" s="13" t="s">
         <v>861</v>
@@ -19060,7 +19060,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" ht="30" customHeight="1">
       <c r="A126" s="8"/>
       <c r="B126" s="13" t="s">
         <v>864</v>
@@ -19091,7 +19091,7 @@
       </c>
       <c r="K126" s="8"/>
     </row>
-    <row r="127" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="30" customHeight="1">
       <c r="A127" s="8"/>
       <c r="B127" s="13" t="s">
         <v>867</v>
@@ -19122,7 +19122,7 @@
       </c>
       <c r="K127" s="8"/>
     </row>
-    <row r="128" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" ht="30" customHeight="1">
       <c r="A128" s="8"/>
       <c r="B128" s="13" t="s">
         <v>872</v>
@@ -19156,7 +19156,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="30" customHeight="1">
       <c r="A129" s="8"/>
       <c r="B129" s="13" t="s">
         <v>875</v>
@@ -19187,7 +19187,7 @@
       </c>
       <c r="K129" s="8"/>
     </row>
-    <row r="130" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="30" customHeight="1">
       <c r="A130" s="8"/>
       <c r="B130" s="13" t="s">
         <v>880</v>
@@ -19218,7 +19218,7 @@
       </c>
       <c r="K130" s="8"/>
     </row>
-    <row r="131" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="30" customHeight="1">
       <c r="A131" s="8"/>
       <c r="B131" s="13" t="s">
         <v>883</v>
@@ -19252,7 +19252,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="30" customHeight="1">
       <c r="A132" s="8"/>
       <c r="B132" s="13" t="s">
         <v>886</v>
@@ -19286,7 +19286,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="30" customHeight="1">
       <c r="A133" s="8"/>
       <c r="B133" s="13" t="s">
         <v>891</v>
@@ -19317,7 +19317,7 @@
       </c>
       <c r="K133" s="8"/>
     </row>
-    <row r="134" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="30" customHeight="1">
       <c r="A134" s="8"/>
       <c r="B134" s="13" t="s">
         <v>895</v>
@@ -19349,7 +19349,7 @@
       <c r="K134" s="8"/>
       <c r="M134" s="34"/>
     </row>
-    <row r="135" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="30" customHeight="1">
       <c r="A135" s="8"/>
       <c r="B135" s="13" t="s">
         <v>898</v>
@@ -19383,7 +19383,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="30" customHeight="1">
       <c r="A136" s="8"/>
       <c r="B136" s="13" t="s">
         <v>902</v>
@@ -19414,7 +19414,7 @@
       </c>
       <c r="K136" s="8"/>
     </row>
-    <row r="137" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="30" customHeight="1">
       <c r="A137" s="8"/>
       <c r="B137" s="13" t="s">
         <v>905</v>
@@ -19448,7 +19448,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="30" customHeight="1">
       <c r="A138" s="8"/>
       <c r="B138" s="13" t="s">
         <v>908</v>
@@ -19482,7 +19482,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="30" customHeight="1">
       <c r="A139" s="8"/>
       <c r="B139" s="13" t="s">
         <v>911</v>
@@ -19515,7 +19515,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" ht="30" customHeight="1">
       <c r="A140" s="8"/>
       <c r="B140" s="13" t="s">
         <v>914</v>
@@ -19546,7 +19546,7 @@
       </c>
       <c r="K140" s="8"/>
     </row>
-    <row r="141" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" ht="30" customHeight="1">
       <c r="A141" s="8"/>
       <c r="B141" s="13" t="s">
         <v>918</v>
@@ -19577,24 +19577,30 @@
       </c>
       <c r="K141" s="8"/>
     </row>
-    <row r="142" spans="1:13" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="41.1" customHeight="1">
       <c r="A142" s="8"/>
-      <c r="B142" s="46" t="s">
+      <c r="B142" s="43" t="s">
         <v>921</v>
       </c>
-      <c r="C142" s="46"/>
-      <c r="D142" s="46"/>
-      <c r="E142" s="46"/>
-      <c r="F142" s="46"/>
-      <c r="G142" s="46"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="46"/>
-      <c r="J142" s="46"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="43"/>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="43"/>
       <c r="K142" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:WVT142" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="B142:J142"/>
@@ -19604,12 +19610,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
@@ -19627,14 +19627,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -19666,7 +19666,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -19681,7 +19681,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -19696,7 +19696,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -19711,7 +19711,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -19726,7 +19726,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -19741,7 +19741,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -19756,7 +19756,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -19771,7 +19771,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -19786,21 +19786,21 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -19823,7 +19823,7 @@
       <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
@@ -19833,7 +19833,7 @@
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1114</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1070</v>
       </c>
@@ -19867,7 +19867,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1075</v>
       </c>
@@ -19890,7 +19890,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>1084</v>
       </c>
@@ -19910,7 +19910,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>1088</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>1092</v>
       </c>
@@ -19962,7 +19962,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>1264</v>
       </c>
@@ -19984,7 +19984,7 @@
       <c r="G7" s="32"/>
       <c r="I7" s="32"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>1092</v>
       </c>
@@ -20004,7 +20004,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>1104</v>
       </c>
@@ -20024,7 +20024,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>1107</v>
       </c>
@@ -20047,7 +20047,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>1124</v>
       </c>
@@ -20073,7 +20073,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>1128</v>
       </c>
@@ -20093,7 +20093,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>1122</v>
       </c>
@@ -20113,7 +20113,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>1133</v>
       </c>
@@ -20139,7 +20139,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>1138</v>
       </c>
@@ -20159,7 +20159,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>1092</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>1143</v>
       </c>
@@ -20199,7 +20199,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>407</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>1092</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>1150</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>1128</v>
       </c>
@@ -20282,7 +20282,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>1070</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>1178</v>
       </c>
@@ -20331,7 +20331,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>1092</v>
       </c>
@@ -20351,7 +20351,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>1191</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>1214</v>
       </c>
@@ -20394,7 +20394,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>1214</v>
       </c>
@@ -20417,7 +20417,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>1229</v>
       </c>
@@ -20440,7 +20440,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>1233</v>
       </c>
@@ -20463,7 +20463,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>1092</v>
       </c>
@@ -20489,7 +20489,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>1245</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>1249</v>
       </c>
@@ -20535,7 +20535,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>1249</v>
       </c>
@@ -20555,7 +20555,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>1287</v>
       </c>
@@ -20575,7 +20575,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>1296</v>
       </c>
@@ -20595,7 +20595,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>1287</v>
       </c>
@@ -20615,7 +20615,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>1310</v>
       </c>
@@ -20638,7 +20638,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>1315</v>
       </c>
@@ -20658,28 +20658,28 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="C39" s="32"/>
       <c r="E39" s="32"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="C40" s="32"/>
       <c r="E40" s="32"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="C41" s="32"/>
       <c r="E41" s="32"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="C42" s="32"/>
       <c r="E42" s="32"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>1117</v>
       </c>
@@ -20693,7 +20693,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>1212</v>
       </c>
@@ -20707,7 +20707,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>1283</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>1295</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:5">
       <c r="E53" t="s">
         <v>1140</v>
       </c>

--- a/아버지_부조금.xlsx
+++ b/아버지_부조금.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20414"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Programming\01_ProgrammingPractice\Angular\ChangwonLife\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80F1027-FE7F-4146-885A-7A25EF603BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9659DC3-2A3A-4B8C-925C-1D90FF607930}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="1320">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8666,6 +8666,21 @@
         <charset val="129"/>
       </rPr>
       <t>에 5만원부의</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2024-10-11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장인별세 5만원부조(10.14일)</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -9005,20 +9020,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9028,6 +9034,15 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14404,8 +14419,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B112" workbookViewId="0">
-      <selection activeCell="M121" sqref="M121"/>
+    <sheetView tabSelected="1" topLeftCell="B50" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15056,127 +15071,127 @@
   <sheetData>
     <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="45">
         <v>6490000</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="43" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16735,7 +16750,7 @@
       </c>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="13" t="s">
         <v>628</v>
@@ -16765,6 +16780,9 @@
         <v>444</v>
       </c>
       <c r="K56" s="8"/>
+      <c r="M56" s="9" t="s">
+        <v>1319</v>
+      </c>
     </row>
     <row r="57" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
@@ -19579,22 +19597,28 @@
     </row>
     <row r="142" spans="1:13" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
-      <c r="B142" s="46" t="s">
+      <c r="B142" s="43" t="s">
         <v>921</v>
       </c>
-      <c r="C142" s="46"/>
-      <c r="D142" s="46"/>
-      <c r="E142" s="46"/>
-      <c r="F142" s="46"/>
-      <c r="G142" s="46"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="46"/>
-      <c r="J142" s="46"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="43"/>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="43"/>
       <c r="K142" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:WVT142" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="B142:J142"/>
@@ -19604,12 +19628,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>

--- a/아버지_부조금.xlsx
+++ b/아버지_부조금.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20415"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Programming\01_ProgrammingPractice\Angular\ChangwonLife\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9659DC3-2A3A-4B8C-925C-1D90FF607930}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50C3642-61F2-4DC1-A5BF-472948EBC4D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="1321">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8681,6 +8681,21 @@
         <charset val="129"/>
       </rPr>
       <t>장인별세 5만원부조(10.14일)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2024-10-17 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전양덕2동장, 장인별세, 부조않음</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -9020,11 +9035,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9034,15 +9058,6 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14419,8 +14434,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B50" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15071,127 +15086,127 @@
   <sheetData>
     <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="48">
         <v>6490000</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="43" t="s">
         <v>432</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17534,7 +17549,7 @@
       </c>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="13" t="s">
         <v>708</v>
@@ -17564,6 +17579,9 @@
         <v>444</v>
       </c>
       <c r="K79" s="8"/>
+      <c r="M79" s="9" t="s">
+        <v>1320</v>
+      </c>
     </row>
     <row r="80" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
@@ -19597,28 +19615,22 @@
     </row>
     <row r="142" spans="1:13" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
-      <c r="B142" s="43" t="s">
+      <c r="B142" s="46" t="s">
         <v>921</v>
       </c>
-      <c r="C142" s="43"/>
-      <c r="D142" s="43"/>
-      <c r="E142" s="43"/>
-      <c r="F142" s="43"/>
-      <c r="G142" s="43"/>
-      <c r="H142" s="43"/>
-      <c r="I142" s="43"/>
-      <c r="J142" s="43"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="46"/>
+      <c r="H142" s="46"/>
+      <c r="I142" s="46"/>
+      <c r="J142" s="46"/>
       <c r="K142" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:WVT142" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:J4"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="B142:J142"/>
@@ -19628,6 +19640,12 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
